--- a/data/ewas_cpgs_top_EFS.xlsx
+++ b/data/ewas_cpgs_top_EFS.xlsx
@@ -331,7 +331,7 @@
     <t>RP11-550P17.5;RP11-180D21.3</t>
   </si>
   <si>
-    <t>CTBP1-AS;SPON2</t>
+    <t>SPON2;CTBP1-AS</t>
   </si>
   <si>
     <t>HMGXB3</t>
@@ -355,16 +355,16 @@
     <t>ROBO4</t>
   </si>
   <si>
-    <t>RP11-77H9.2;PMM2;RP11-152P23.2</t>
+    <t>RP11-77H9.2;RP11-152P23.2;PMM2</t>
   </si>
   <si>
     <t>TH</t>
   </si>
   <si>
-    <t>GPR1;GPR1-AS</t>
-  </si>
-  <si>
-    <t>NEAT1_3;NEAT1;NEAT1_2</t>
+    <t>GPR1-AS;GPR1</t>
+  </si>
+  <si>
+    <t>NEAT1;NEAT1_3;NEAT1_2</t>
   </si>
   <si>
     <t>SDC4</t>
@@ -409,13 +409,13 @@
     <t>LINC01122</t>
   </si>
   <si>
-    <t>RP11-701P16.2;ACSL1</t>
+    <t>ACSL1;RP11-701P16.2</t>
   </si>
   <si>
     <t>AC093110.3</t>
   </si>
   <si>
-    <t>CDK5;SLC4A2</t>
+    <t>SLC4A2;CDK5</t>
   </si>
   <si>
     <t>SYNGAP1</t>
@@ -442,7 +442,7 @@
     <t>processed_transcript;protein_coding</t>
   </si>
   <si>
-    <t>lincRNA;misc_RNA</t>
+    <t>misc_RNA;lincRNA</t>
   </si>
   <si>
     <t>unitary_pseudogene</t>

--- a/data/ewas_cpgs_top_EFS.xlsx
+++ b/data/ewas_cpgs_top_EFS.xlsx
@@ -298,7 +298,7 @@
     <t>TECPR1</t>
   </si>
   <si>
-    <t>FLCN;MPRIP;RP11-45M22.4</t>
+    <t>RP11-45M22.4;MPRIP;FLCN</t>
   </si>
   <si>
     <t>.</t>
@@ -331,7 +331,7 @@
     <t>RP11-550P17.5;RP11-180D21.3</t>
   </si>
   <si>
-    <t>SPON2;CTBP1-AS</t>
+    <t>CTBP1-AS;SPON2</t>
   </si>
   <si>
     <t>HMGXB3</t>
@@ -343,7 +343,7 @@
     <t>METTL8</t>
   </si>
   <si>
-    <t>GATA3-AS1;GATA3;RP11-379F12.3</t>
+    <t>GATA3;RP11-379F12.3;GATA3-AS1</t>
   </si>
   <si>
     <t>TM7SF2</t>
@@ -361,7 +361,7 @@
     <t>TH</t>
   </si>
   <si>
-    <t>GPR1-AS;GPR1</t>
+    <t>GPR1;GPR1-AS</t>
   </si>
   <si>
     <t>NEAT1;NEAT1_3;NEAT1_2</t>
@@ -409,7 +409,7 @@
     <t>LINC01122</t>
   </si>
   <si>
-    <t>ACSL1;RP11-701P16.2</t>
+    <t>RP11-701P16.2;ACSL1</t>
   </si>
   <si>
     <t>AC093110.3</t>
@@ -430,7 +430,7 @@
     <t>antisense;lincRNA</t>
   </si>
   <si>
-    <t>antisense;protein_coding</t>
+    <t>protein_coding;antisense</t>
   </si>
   <si>
     <t>protein_coding;lincRNA</t>
@@ -439,7 +439,7 @@
     <t>processed_transcript</t>
   </si>
   <si>
-    <t>processed_transcript;protein_coding</t>
+    <t>protein_coding;processed_transcript</t>
   </si>
   <si>
     <t>misc_RNA;lincRNA</t>

--- a/data/ewas_cpgs_top_EFS.xlsx
+++ b/data/ewas_cpgs_top_EFS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="257">
   <si>
     <t>chrm</t>
   </si>
@@ -61,364 +61,679 @@
     <t>minuslog10value</t>
   </si>
   <si>
+    <t>cg06748884</t>
+  </si>
+  <si>
     <t>cg00192882</t>
   </si>
   <si>
+    <t>cg25922105</t>
+  </si>
+  <si>
+    <t>cg08900363</t>
+  </si>
+  <si>
+    <t>cg18866597</t>
+  </si>
+  <si>
+    <t>cg08729279</t>
+  </si>
+  <si>
+    <t>cg06806210</t>
+  </si>
+  <si>
+    <t>cg18112681</t>
+  </si>
+  <si>
+    <t>cg06400255</t>
+  </si>
+  <si>
+    <t>cg12449049</t>
+  </si>
+  <si>
+    <t>cg00945409</t>
+  </si>
+  <si>
+    <t>cg08069883</t>
+  </si>
+  <si>
+    <t>cg05197036</t>
+  </si>
+  <si>
+    <t>cg17875657</t>
+  </si>
+  <si>
+    <t>cg13958583</t>
+  </si>
+  <si>
+    <t>cg12026095</t>
+  </si>
+  <si>
+    <t>cg01048810</t>
+  </si>
+  <si>
+    <t>cg11975397</t>
+  </si>
+  <si>
+    <t>cg17540192</t>
+  </si>
+  <si>
+    <t>cg20310759</t>
+  </si>
+  <si>
+    <t>cg02767093</t>
+  </si>
+  <si>
+    <t>cg15215077</t>
+  </si>
+  <si>
+    <t>cg08079170</t>
+  </si>
+  <si>
     <t>cg14928764</t>
   </si>
   <si>
-    <t>cg08900363</t>
-  </si>
-  <si>
-    <t>cg15215077</t>
-  </si>
-  <si>
-    <t>cg06748884</t>
-  </si>
-  <si>
-    <t>cg17540192</t>
+    <t>cg14722693</t>
+  </si>
+  <si>
+    <t>cg19599045</t>
+  </si>
+  <si>
+    <t>cg26971423</t>
+  </si>
+  <si>
+    <t>cg00598235</t>
+  </si>
+  <si>
+    <t>cg13213755</t>
+  </si>
+  <si>
+    <t>cg24422027</t>
+  </si>
+  <si>
+    <t>cg01052291</t>
+  </si>
+  <si>
+    <t>cg05075308</t>
+  </si>
+  <si>
+    <t>cg09372525</t>
+  </si>
+  <si>
+    <t>cg06130562</t>
+  </si>
+  <si>
+    <t>cg26112639</t>
+  </si>
+  <si>
+    <t>cg14910406</t>
+  </si>
+  <si>
+    <t>cg11269166</t>
+  </si>
+  <si>
+    <t>cg06845655</t>
+  </si>
+  <si>
+    <t>cg26124526</t>
+  </si>
+  <si>
+    <t>cg08314781</t>
+  </si>
+  <si>
+    <t>cg25535982</t>
+  </si>
+  <si>
+    <t>cg24320673</t>
+  </si>
+  <si>
+    <t>cg08998192</t>
+  </si>
+  <si>
+    <t>cg09432758</t>
+  </si>
+  <si>
+    <t>cg07499292</t>
+  </si>
+  <si>
+    <t>cg04578362</t>
+  </si>
+  <si>
+    <t>cg14399183</t>
+  </si>
+  <si>
+    <t>cg06529643</t>
+  </si>
+  <si>
+    <t>cg18564075</t>
+  </si>
+  <si>
+    <t>cg03116016</t>
+  </si>
+  <si>
+    <t>cg13033858</t>
+  </si>
+  <si>
+    <t>cg02474542</t>
+  </si>
+  <si>
+    <t>cg05299836</t>
+  </si>
+  <si>
+    <t>cg12708336</t>
+  </si>
+  <si>
+    <t>cg00375146</t>
+  </si>
+  <si>
+    <t>cg06605704</t>
+  </si>
+  <si>
+    <t>cg23443627</t>
+  </si>
+  <si>
+    <t>cg00041989</t>
+  </si>
+  <si>
+    <t>cg16270222</t>
+  </si>
+  <si>
+    <t>cg06024557</t>
+  </si>
+  <si>
+    <t>cg23361265</t>
+  </si>
+  <si>
+    <t>cg06650260</t>
+  </si>
+  <si>
+    <t>cg16317961</t>
+  </si>
+  <si>
+    <t>cg06985664</t>
+  </si>
+  <si>
+    <t>cg08855705</t>
+  </si>
+  <si>
+    <t>cg07049515</t>
+  </si>
+  <si>
+    <t>cg11823637</t>
+  </si>
+  <si>
+    <t>cg25152348</t>
+  </si>
+  <si>
+    <t>cg27018309</t>
+  </si>
+  <si>
+    <t>cg03258927</t>
+  </si>
+  <si>
+    <t>cg10601624</t>
+  </si>
+  <si>
+    <t>cg24607181</t>
+  </si>
+  <si>
+    <t>cg21769117</t>
+  </si>
+  <si>
+    <t>cg21611262</t>
+  </si>
+  <si>
+    <t>cg12586594</t>
+  </si>
+  <si>
+    <t>cg03376089</t>
+  </si>
+  <si>
+    <t>cg25828093</t>
+  </si>
+  <si>
+    <t>cg14978242</t>
+  </si>
+  <si>
+    <t>cg11578066</t>
+  </si>
+  <si>
+    <t>cg17413194</t>
+  </si>
+  <si>
+    <t>cg19380581</t>
+  </si>
+  <si>
+    <t>cg02960777</t>
+  </si>
+  <si>
+    <t>cg02678414</t>
+  </si>
+  <si>
+    <t>cg14397690</t>
+  </si>
+  <si>
+    <t>cg15830431</t>
+  </si>
+  <si>
+    <t>cg04314978</t>
+  </si>
+  <si>
+    <t>cg24180227</t>
+  </si>
+  <si>
+    <t>cg22162847</t>
+  </si>
+  <si>
+    <t>cg17078656</t>
+  </si>
+  <si>
+    <t>cg26888941</t>
+  </si>
+  <si>
+    <t>cg20867674</t>
+  </si>
+  <si>
+    <t>cg23409168</t>
+  </si>
+  <si>
+    <t>cg02898412</t>
+  </si>
+  <si>
+    <t>cg15507449</t>
+  </si>
+  <si>
+    <t>cg24747122</t>
+  </si>
+  <si>
+    <t>cg11851174</t>
+  </si>
+  <si>
+    <t>cg00795277</t>
+  </si>
+  <si>
+    <t>cg06935361</t>
+  </si>
+  <si>
+    <t>cg05413061</t>
+  </si>
+  <si>
+    <t>cg11937508</t>
+  </si>
+  <si>
+    <t>cg12044599</t>
+  </si>
+  <si>
+    <t>cg06666376</t>
+  </si>
+  <si>
+    <t>cg12172163</t>
+  </si>
+  <si>
+    <t>cg27627381</t>
+  </si>
+  <si>
+    <t>cg24397815</t>
+  </si>
+  <si>
+    <t>cg02320937</t>
+  </si>
+  <si>
+    <t>cg10196861</t>
+  </si>
+  <si>
+    <t>cg01312394</t>
+  </si>
+  <si>
+    <t>cg03572680</t>
   </si>
   <si>
     <t>cg21637653</t>
   </si>
   <si>
-    <t>cg02918093</t>
-  </si>
-  <si>
-    <t>cg14978242</t>
-  </si>
-  <si>
-    <t>cg06845655</t>
-  </si>
-  <si>
-    <t>cg04578362</t>
-  </si>
-  <si>
-    <t>cg13958583</t>
-  </si>
-  <si>
-    <t>cg11823637</t>
-  </si>
-  <si>
-    <t>cg11851174</t>
-  </si>
-  <si>
-    <t>cg13213755</t>
-  </si>
-  <si>
-    <t>cg11083457</t>
-  </si>
-  <si>
-    <t>cg14165772</t>
-  </si>
-  <si>
-    <t>cg06985664</t>
-  </si>
-  <si>
-    <t>cg11975397</t>
-  </si>
-  <si>
-    <t>cg16721321</t>
-  </si>
-  <si>
-    <t>cg06024557</t>
-  </si>
-  <si>
-    <t>cg09890699</t>
-  </si>
-  <si>
-    <t>cg11269166</t>
-  </si>
-  <si>
-    <t>cg01224891</t>
-  </si>
-  <si>
-    <t>cg08069883</t>
-  </si>
-  <si>
-    <t>cg07471203</t>
-  </si>
-  <si>
-    <t>cg22162847</t>
-  </si>
-  <si>
-    <t>cg03572680</t>
-  </si>
-  <si>
-    <t>cg27018309</t>
-  </si>
-  <si>
-    <t>cg26966083</t>
-  </si>
-  <si>
-    <t>cg11937508</t>
-  </si>
-  <si>
-    <t>cg26124526</t>
-  </si>
-  <si>
-    <t>cg09411730</t>
-  </si>
-  <si>
-    <t>cg18866597</t>
-  </si>
-  <si>
-    <t>cg12731773</t>
-  </si>
-  <si>
-    <t>cg23361265</t>
-  </si>
-  <si>
-    <t>cg01048810</t>
-  </si>
-  <si>
-    <t>cg09432758</t>
-  </si>
-  <si>
-    <t>cg25535982</t>
-  </si>
-  <si>
-    <t>cg07262001</t>
-  </si>
-  <si>
-    <t>cg01476568</t>
-  </si>
-  <si>
-    <t>cg17875657</t>
-  </si>
-  <si>
-    <t>cg21611262</t>
-  </si>
-  <si>
-    <t>cg17413194</t>
-  </si>
-  <si>
-    <t>cg12449049</t>
-  </si>
-  <si>
-    <t>cg10520790</t>
-  </si>
-  <si>
-    <t>cg25292309</t>
-  </si>
-  <si>
-    <t>cg13359161</t>
-  </si>
-  <si>
-    <t>cg20823481</t>
-  </si>
-  <si>
-    <t>cg25922105</t>
-  </si>
-  <si>
-    <t>cg14919082</t>
-  </si>
-  <si>
-    <t>cg02203833</t>
-  </si>
-  <si>
-    <t>cg18437839</t>
-  </si>
-  <si>
-    <t>cg02387554</t>
-  </si>
-  <si>
-    <t>cg26888941</t>
+    <t>cg23886101</t>
+  </si>
+  <si>
+    <t>cg04544475</t>
+  </si>
+  <si>
+    <t>chr16</t>
   </si>
   <si>
     <t>chr17</t>
   </si>
   <si>
+    <t>chr10</t>
+  </si>
+  <si>
+    <t>chr7</t>
+  </si>
+  <si>
     <t>chr20</t>
   </si>
   <si>
-    <t>chr7</t>
+    <t>chr2</t>
+  </si>
+  <si>
+    <t>chr1</t>
+  </si>
+  <si>
+    <t>chr11</t>
   </si>
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>chr16</t>
+    <t>chr3</t>
   </si>
   <si>
     <t>chr5</t>
   </si>
   <si>
-    <t>chr11</t>
-  </si>
-  <si>
-    <t>chr2</t>
-  </si>
-  <si>
     <t>chr8</t>
   </si>
   <si>
+    <t>chr19</t>
+  </si>
+  <si>
+    <t>chr13</t>
+  </si>
+  <si>
+    <t>chr14</t>
+  </si>
+  <si>
+    <t>chr15</t>
+  </si>
+  <si>
+    <t>chr4</t>
+  </si>
+  <si>
+    <t>chr9</t>
+  </si>
+  <si>
     <t>chr12</t>
   </si>
   <si>
-    <t>chr15</t>
-  </si>
-  <si>
-    <t>chr13</t>
-  </si>
-  <si>
-    <t>chr1</t>
-  </si>
-  <si>
-    <t>chr4</t>
-  </si>
-  <si>
-    <t>chr10</t>
-  </si>
-  <si>
-    <t>chr3</t>
-  </si>
-  <si>
-    <t>chr19</t>
+    <t>chr18</t>
   </si>
   <si>
     <t>chr22</t>
   </si>
   <si>
+    <t>CLEC16A</t>
+  </si>
+  <si>
     <t>MFAP4</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>PRKAR1B</t>
+  </si>
+  <si>
+    <t>SDC4</t>
+  </si>
+  <si>
+    <t>LINC00607</t>
+  </si>
+  <si>
+    <t>OBSCN</t>
+  </si>
+  <si>
+    <t>RARRES3</t>
+  </si>
+  <si>
+    <t>ALDOA;FAM57B</t>
+  </si>
+  <si>
+    <t>CMAHP</t>
+  </si>
+  <si>
+    <t>ZMIZ1-AS1</t>
+  </si>
+  <si>
+    <t>PCDHGA12;PCDHGB1;PCDHGA5;PCDHGB2;PCDHGA8;PCDHGB3;PCDHGA1;PCDHGB6;PCDHGA6;PCDHGB5;PCDHGA9;PCDHGA2;PCDHGB7;PCDHGA10;PCDHGA11;PCDHGA7;PCDHGA4;PCDHGA3;PCDHGB4</t>
+  </si>
+  <si>
+    <t>MAP2</t>
+  </si>
+  <si>
+    <t>FTL</t>
+  </si>
+  <si>
+    <t>C1orf228</t>
+  </si>
+  <si>
+    <t>RP11-180D21.3;RP11-550P17.5</t>
+  </si>
+  <si>
+    <t>TECPR1</t>
+  </si>
+  <si>
+    <t>RP5-1052I5.2;LINC01140</t>
+  </si>
+  <si>
+    <t>STK24</t>
+  </si>
+  <si>
+    <t>MAN1A1</t>
+  </si>
+  <si>
+    <t>RP11-702B10.2</t>
+  </si>
+  <si>
     <t>CD93</t>
   </si>
   <si>
-    <t>PRKAR1B</t>
-  </si>
-  <si>
-    <t>MAN1A1</t>
-  </si>
-  <si>
-    <t>CLEC16A</t>
-  </si>
-  <si>
-    <t>TECPR1</t>
+    <t>CSGALNACT1</t>
+  </si>
+  <si>
+    <t>SLC7A7</t>
+  </si>
+  <si>
+    <t>LAP3</t>
+  </si>
+  <si>
+    <t>NPTN</t>
+  </si>
+  <si>
+    <t>VNN1</t>
+  </si>
+  <si>
+    <t>IRF2</t>
+  </si>
+  <si>
+    <t>CYB561D1</t>
+  </si>
+  <si>
+    <t>PMM2;RP11-77H9.2;RP11-152P23.2</t>
+  </si>
+  <si>
+    <t>NLRP3</t>
+  </si>
+  <si>
+    <t>DNAJB2</t>
+  </si>
+  <si>
+    <t>METTL8</t>
+  </si>
+  <si>
+    <t>TMEM126A</t>
+  </si>
+  <si>
+    <t>EML6</t>
+  </si>
+  <si>
+    <t>RP11-632K5.3</t>
+  </si>
+  <si>
+    <t>CD300A</t>
+  </si>
+  <si>
+    <t>TAP2;XXbac-BPG246D15.9</t>
+  </si>
+  <si>
+    <t>TCF3</t>
+  </si>
+  <si>
+    <t>AL137797.1;FAAHP1</t>
+  </si>
+  <si>
+    <t>TEX41</t>
+  </si>
+  <si>
+    <t>GSN;GSN-AS1</t>
+  </si>
+  <si>
+    <t>MED13L</t>
+  </si>
+  <si>
+    <t>RP11-1021N1.1;C16orf45</t>
+  </si>
+  <si>
+    <t>SSH1</t>
+  </si>
+  <si>
+    <t>PDE2A</t>
+  </si>
+  <si>
+    <t>BCKDK;AC135050.1</t>
+  </si>
+  <si>
+    <t>MUC5AC</t>
+  </si>
+  <si>
+    <t>HMOX2</t>
+  </si>
+  <si>
+    <t>HMGXB3</t>
+  </si>
+  <si>
+    <t>TTC19</t>
+  </si>
+  <si>
+    <t>NUDC;NR0B2</t>
+  </si>
+  <si>
+    <t>MAPRE2</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>PDP1</t>
+  </si>
+  <si>
+    <t>PRR12</t>
+  </si>
+  <si>
+    <t>RP11-114G22.1</t>
+  </si>
+  <si>
+    <t>LMF2;NCAPH2</t>
+  </si>
+  <si>
+    <t>OLFML3</t>
+  </si>
+  <si>
+    <t>CLIC1</t>
+  </si>
+  <si>
+    <t>GRXCR2</t>
+  </si>
+  <si>
+    <t>AC008753.6;MYADM</t>
+  </si>
+  <si>
+    <t>TOM1L2</t>
+  </si>
+  <si>
+    <t>SERINC5</t>
+  </si>
+  <si>
+    <t>H1FX;H1FX-AS1</t>
+  </si>
+  <si>
+    <t>GNA13</t>
+  </si>
+  <si>
+    <t>PSTPIP2</t>
+  </si>
+  <si>
+    <t>PHTF2</t>
+  </si>
+  <si>
+    <t>TRAF7</t>
+  </si>
+  <si>
+    <t>ANXA2</t>
+  </si>
+  <si>
+    <t>STK3</t>
+  </si>
+  <si>
+    <t>TRAF6</t>
+  </si>
+  <si>
+    <t>ERCC2</t>
+  </si>
+  <si>
+    <t>ADAMTSL4-AS1</t>
+  </si>
+  <si>
+    <t>VPS13D</t>
+  </si>
+  <si>
+    <t>SYNGAP1</t>
+  </si>
+  <si>
+    <t>LINC00536</t>
+  </si>
+  <si>
+    <t>RAI1</t>
+  </si>
+  <si>
+    <t>RP11-104H15.10;FGF11;RP11-104H15.7;RP11-104H15.8</t>
+  </si>
+  <si>
+    <t>BRCA2</t>
+  </si>
+  <si>
+    <t>GALNT15</t>
+  </si>
+  <si>
+    <t>GPR1-AS;GPR1</t>
+  </si>
+  <si>
+    <t>PTPRCAP;CORO1B</t>
+  </si>
+  <si>
+    <t>SMIM24</t>
+  </si>
+  <si>
+    <t>PROZ</t>
+  </si>
+  <si>
+    <t>SEPT9</t>
+  </si>
+  <si>
+    <t>PHRF1</t>
+  </si>
+  <si>
+    <t>SCNN1G</t>
+  </si>
+  <si>
+    <t>ROBO4</t>
   </si>
   <si>
     <t>RP11-45M22.4;MPRIP;FLCN</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>SERINC5</t>
-  </si>
-  <si>
-    <t>TMEM126A</t>
-  </si>
-  <si>
-    <t>TEX41</t>
-  </si>
-  <si>
-    <t>RP11-114G22.1</t>
-  </si>
-  <si>
-    <t>RAI1</t>
-  </si>
-  <si>
-    <t>NPTN</t>
-  </si>
-  <si>
-    <t>SERPINE3</t>
-  </si>
-  <si>
-    <t>MET</t>
-  </si>
-  <si>
-    <t>RP11-550P17.5;RP11-180D21.3</t>
-  </si>
-  <si>
-    <t>CTBP1-AS;SPON2</t>
-  </si>
-  <si>
-    <t>HMGXB3</t>
-  </si>
-  <si>
-    <t>SSBP3</t>
-  </si>
-  <si>
-    <t>METTL8</t>
-  </si>
-  <si>
-    <t>GATA3;RP11-379F12.3;GATA3-AS1</t>
-  </si>
-  <si>
-    <t>TM7SF2</t>
-  </si>
-  <si>
-    <t>ADAMTSL4-AS1</t>
-  </si>
-  <si>
-    <t>ROBO4</t>
-  </si>
-  <si>
-    <t>RP11-77H9.2;RP11-152P23.2;PMM2</t>
-  </si>
-  <si>
-    <t>TH</t>
-  </si>
-  <si>
-    <t>GPR1;GPR1-AS</t>
-  </si>
-  <si>
-    <t>NEAT1;NEAT1_3;NEAT1_2</t>
-  </si>
-  <si>
-    <t>SDC4</t>
-  </si>
-  <si>
-    <t>TSPAN4</t>
-  </si>
-  <si>
-    <t>TTC19</t>
-  </si>
-  <si>
-    <t>C1orf228</t>
-  </si>
-  <si>
-    <t>TCF3</t>
-  </si>
-  <si>
-    <t>RP11-632K5.3</t>
-  </si>
-  <si>
-    <t>TCF20</t>
-  </si>
-  <si>
-    <t>FAM208B</t>
-  </si>
-  <si>
-    <t>MAP2</t>
-  </si>
-  <si>
-    <t>GRXCR2</t>
-  </si>
-  <si>
-    <t>GNA13</t>
-  </si>
-  <si>
-    <t>CMAHP</t>
-  </si>
-  <si>
-    <t>PROM1</t>
-  </si>
-  <si>
-    <t>LINC01122</t>
-  </si>
-  <si>
-    <t>RP11-701P16.2;ACSL1</t>
-  </si>
-  <si>
-    <t>AC093110.3</t>
-  </si>
-  <si>
-    <t>SLC4A2;CDK5</t>
-  </si>
-  <si>
-    <t>SYNGAP1</t>
+    <t>NUDCD3</t>
+  </si>
+  <si>
+    <t>RNF43;BZRAP1-AS1</t>
   </si>
   <si>
     <t>protein_coding</t>
@@ -427,43 +742,49 @@
     <t>lincRNA</t>
   </si>
   <si>
+    <t>unitary_pseudogene</t>
+  </si>
+  <si>
+    <t>antisense</t>
+  </si>
+  <si>
     <t>antisense;lincRNA</t>
   </si>
   <si>
-    <t>protein_coding;antisense</t>
-  </si>
-  <si>
-    <t>protein_coding;lincRNA</t>
+    <t>lincRNA;protein_coding</t>
+  </si>
+  <si>
+    <t>antisense;protein_coding</t>
+  </si>
+  <si>
+    <t>miRNA;transcribed_unprocessed_pseudogene</t>
+  </si>
+  <si>
+    <t>miRNA;protein_coding</t>
   </si>
   <si>
     <t>processed_transcript</t>
   </si>
   <si>
-    <t>protein_coding;processed_transcript</t>
-  </si>
-  <si>
-    <t>misc_RNA;lincRNA</t>
-  </si>
-  <si>
-    <t>unitary_pseudogene</t>
-  </si>
-  <si>
-    <t>antisense</t>
+    <t>antisense;processed_transcript;protein_coding</t>
+  </si>
+  <si>
+    <t>processed_transcript;protein_coding</t>
   </si>
   <si>
     <t>N_Shelf</t>
   </si>
   <si>
+    <t>N_Shore</t>
+  </si>
+  <si>
     <t>S_Shelf</t>
   </si>
   <si>
-    <t>N_Shore</t>
+    <t>Island</t>
   </si>
   <si>
     <t>S_Shore</t>
-  </si>
-  <si>
-    <t>Island</t>
   </si>
 </sst>
 </file>
@@ -821,7 +1142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:P113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -879,49 +1200,49 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="C2">
-        <v>19387806</v>
+        <v>11138900</v>
       </c>
       <c r="D2">
-        <v>19387808</v>
+        <v>11138902</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H2">
-        <v>0.2457035878377885</v>
+        <v>-0.2504000223812619</v>
       </c>
       <c r="I2">
-        <v>0.04117536493877709</v>
+        <v>0.04251443405734562</v>
       </c>
       <c r="J2">
-        <v>1.27852054833051</v>
+        <v>0.7784893076303593</v>
       </c>
       <c r="K2">
-        <v>1.179394717388683</v>
+        <v>0.7162494477689025</v>
       </c>
       <c r="L2">
-        <v>1.385977712468116</v>
+        <v>0.8461376186503343</v>
       </c>
       <c r="M2">
-        <v>5.967247362667476</v>
+        <v>-5.88976492180302</v>
       </c>
       <c r="N2">
-        <v>2.412894717262348E-09</v>
+        <v>3.86745361332878E-09</v>
       </c>
       <c r="O2">
-        <v>0.0005956633814946736</v>
+        <v>0.001288086365548057</v>
       </c>
       <c r="P2">
-        <v>8.617461627411366</v>
+        <v>8.41257488657395</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -929,49 +1250,49 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="C3">
-        <v>23083970</v>
+        <v>19387806</v>
       </c>
       <c r="D3">
-        <v>23083972</v>
+        <v>19387808</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H3">
-        <v>-0.1777669482108653</v>
+        <v>0.2169093430064192</v>
       </c>
       <c r="I3">
-        <v>0.03011568880766584</v>
+        <v>0.04055819004690315</v>
       </c>
       <c r="J3">
-        <v>0.8371374971482146</v>
+        <v>1.242231480061538</v>
       </c>
       <c r="K3">
-        <v>0.7891549310142129</v>
+        <v>1.147306190174491</v>
       </c>
       <c r="L3">
-        <v>0.8880375216447269</v>
+        <v>1.345010654759204</v>
       </c>
       <c r="M3">
-        <v>-5.902802002842297</v>
+        <v>5.348102140543658</v>
       </c>
       <c r="N3">
-        <v>3.573790878051505E-09</v>
+        <v>8.888130422203615E-08</v>
       </c>
       <c r="O3">
-        <v>0.0005956633814946736</v>
+        <v>0.01480131471079146</v>
       </c>
       <c r="P3">
-        <v>8.446870864019917</v>
+        <v>7.051189581291787</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -979,49 +1300,49 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C4">
-        <v>597816</v>
+        <v>43359427</v>
       </c>
       <c r="D4">
-        <v>597818</v>
+        <v>43359429</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="H4">
-        <v>-0.2575792907497402</v>
+        <v>-0.3008187042465721</v>
       </c>
       <c r="I4">
-        <v>0.04467428038914823</v>
+        <v>0.06281696908226875</v>
       </c>
       <c r="J4">
-        <v>0.7729203384506098</v>
+        <v>0.7402119578673417</v>
       </c>
       <c r="K4">
-        <v>0.7081217255328756</v>
+        <v>0.6544646529583208</v>
       </c>
       <c r="L4">
-        <v>0.8436485254580285</v>
+        <v>0.8371937889893909</v>
       </c>
       <c r="M4">
-        <v>-5.765717735261125</v>
+        <v>-4.788812778480326</v>
       </c>
       <c r="N4">
-        <v>8.131104952002726E-09</v>
+        <v>1.677709119947652E-06</v>
       </c>
       <c r="O4">
-        <v>0.0008875252701570163</v>
+        <v>0.1470193747266814</v>
       </c>
       <c r="P4">
-        <v>8.089850433255807</v>
+        <v>5.775283334658864</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1029,49 +1350,49 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="C5">
-        <v>119240673</v>
+        <v>597816</v>
       </c>
       <c r="D5">
-        <v>119240675</v>
+        <v>597818</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H5">
-        <v>-0.3004529192588132</v>
+        <v>-0.2134279409389356</v>
       </c>
       <c r="I5">
-        <v>0.05252634352203775</v>
+        <v>0.04466380122168315</v>
       </c>
       <c r="J5">
-        <v>0.7404827658150107</v>
+        <v>0.8078103681099763</v>
       </c>
       <c r="K5">
-        <v>0.668043050409298</v>
+        <v>0.7401019124450172</v>
       </c>
       <c r="L5">
-        <v>0.8207775324256503</v>
+        <v>0.8817131530847847</v>
       </c>
       <c r="M5">
-        <v>-5.720042536993962</v>
+        <v>-4.778544035685921</v>
       </c>
       <c r="N5">
-        <v>1.064973880572749E-08</v>
+        <v>1.765690957451032E-06</v>
       </c>
       <c r="O5">
-        <v>0.0008875252701570163</v>
+        <v>0.1470193747266814</v>
       </c>
       <c r="P5">
-        <v>7.97266104355128</v>
+        <v>5.753085307111016</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1079,49 +1400,49 @@
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="C6">
-        <v>11138900</v>
+        <v>45344681</v>
       </c>
       <c r="D6">
-        <v>11138902</v>
+        <v>45344683</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="H6">
-        <v>-0.2453048600634007</v>
+        <v>-0.3915791844604438</v>
       </c>
       <c r="I6">
-        <v>0.04485592333030413</v>
+        <v>0.08377333062422712</v>
       </c>
       <c r="J6">
-        <v>0.782465959255166</v>
+        <v>0.6759885205890901</v>
       </c>
       <c r="K6">
-        <v>0.716611909867139</v>
+        <v>0.573629308466658</v>
       </c>
       <c r="L6">
-        <v>0.8543717582179451</v>
+        <v>0.7966128529759169</v>
       </c>
       <c r="M6">
-        <v>-5.468728360735263</v>
+        <v>-4.674270218727578</v>
       </c>
       <c r="N6">
-        <v>4.532757975940582E-08</v>
+        <v>2.950007122169331E-06</v>
       </c>
       <c r="O6">
-        <v>0.003021998808075538</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P6">
-        <v>7.343637469231535</v>
+        <v>5.530176935508242</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1129,49 +1450,49 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>132</v>
       </c>
       <c r="C7">
-        <v>98245946</v>
+        <v>215843654</v>
       </c>
       <c r="D7">
-        <v>98245948</v>
+        <v>215843656</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H7">
-        <v>-0.1127437871910136</v>
+        <v>-0.274204026962806</v>
       </c>
       <c r="I7">
-        <v>0.02180908835084903</v>
+        <v>0.05930233425703876</v>
       </c>
       <c r="J7">
-        <v>0.8933795260734348</v>
+        <v>0.7601769628409386</v>
       </c>
       <c r="K7">
-        <v>0.8559966512883821</v>
+        <v>0.6767627799908168</v>
       </c>
       <c r="L7">
-        <v>0.9323949765526701</v>
+        <v>0.8538723344713417</v>
       </c>
       <c r="M7">
-        <v>-5.169578176642328</v>
+        <v>-4.623831935085422</v>
       </c>
       <c r="N7">
-        <v>2.346229725266854E-07</v>
+        <v>3.767151306163138E-06</v>
       </c>
       <c r="O7">
-        <v>0.01303530041912385</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P7">
-        <v>6.629629467271086</v>
+        <v>5.423986936177918</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1179,49 +1500,49 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="C8">
-        <v>17213452</v>
+        <v>228215425</v>
       </c>
       <c r="D8">
-        <v>17213454</v>
+        <v>228215427</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="H8">
-        <v>-0.3696149129142987</v>
+        <v>-0.2342269749954867</v>
       </c>
       <c r="I8">
-        <v>0.07369437084368603</v>
+        <v>0.05146644016948756</v>
       </c>
       <c r="J8">
-        <v>0.691000374729518</v>
+        <v>0.7911822169340004</v>
       </c>
       <c r="K8">
-        <v>0.5980665607453624</v>
+        <v>0.7152670252352531</v>
       </c>
       <c r="L8">
-        <v>0.7983752130887497</v>
+        <v>0.8751547021012421</v>
       </c>
       <c r="M8">
-        <v>-5.015510800659294</v>
+        <v>-4.551062288826238</v>
       </c>
       <c r="N8">
-        <v>5.289275300875999E-07</v>
+        <v>5.337574212469363E-06</v>
       </c>
       <c r="O8">
-        <v>0.02044326590566852</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P8">
-        <v>6.276603827849661</v>
+        <v>5.272656073589052</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1229,49 +1550,49 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>134</v>
       </c>
       <c r="C9">
-        <v>10624083</v>
+        <v>63535926</v>
       </c>
       <c r="D9">
-        <v>10624085</v>
+        <v>63535928</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="G9" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H9">
-        <v>-0.2378127431715163</v>
+        <v>-0.1580640416065181</v>
       </c>
       <c r="I9">
-        <v>0.04759086318403141</v>
+        <v>0.03474133267881352</v>
       </c>
       <c r="J9">
-        <v>0.7883503012499805</v>
+        <v>0.8537951018076407</v>
       </c>
       <c r="K9">
-        <v>0.7181411647259351</v>
+        <v>0.7975938249270109</v>
       </c>
       <c r="L9">
-        <v>0.865423440415252</v>
+        <v>0.9139565190809099</v>
       </c>
       <c r="M9">
-        <v>-4.997025211581196</v>
+        <v>-4.549740306966148</v>
       </c>
       <c r="N9">
-        <v>5.822145925469571E-07</v>
+        <v>5.371216259155623E-06</v>
       </c>
       <c r="O9">
-        <v>0.02044326590566852</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P9">
-        <v>6.23491691366327</v>
+        <v>5.269927361445541</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1279,49 +1600,49 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="C10">
-        <v>80205311</v>
+        <v>30051724</v>
       </c>
       <c r="D10">
-        <v>80205313</v>
+        <v>30051726</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G10" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="H10">
-        <v>0.1626357677807641</v>
+        <v>-0.1492697773167078</v>
       </c>
       <c r="I10">
-        <v>0.03257707324419135</v>
+        <v>0.03314669570814343</v>
       </c>
       <c r="J10">
-        <v>1.176608053069232</v>
+        <v>0.8613367144445775</v>
       </c>
       <c r="K10">
-        <v>1.10382991943118</v>
+        <v>0.8071577868294598</v>
       </c>
       <c r="L10">
-        <v>1.254184622265697</v>
+        <v>0.9191522992851111</v>
       </c>
       <c r="M10">
-        <v>4.992338217791339</v>
+        <v>-4.503307920373959</v>
       </c>
       <c r="N10">
-        <v>5.965267565162794E-07</v>
+        <v>6.69038371138686E-06</v>
       </c>
       <c r="O10">
-        <v>0.02044326590566852</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P10">
-        <v>6.224370071781124</v>
+        <v>5.174548973568629</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1329,49 +1650,49 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C11">
-        <v>85651326</v>
+        <v>25088770</v>
       </c>
       <c r="D11">
-        <v>85651328</v>
+        <v>25088772</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
       <c r="G11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H11">
-        <v>-0.1573867893094107</v>
+        <v>-0.1483844736437289</v>
       </c>
       <c r="I11">
-        <v>0.03155946183843188</v>
+        <v>0.03322600143240499</v>
       </c>
       <c r="J11">
-        <v>0.8543735323511971</v>
+        <v>0.8620995966429265</v>
       </c>
       <c r="K11">
-        <v>0.8031271788926048</v>
+        <v>0.807747119953132</v>
       </c>
       <c r="L11">
-        <v>0.9088898395752991</v>
+        <v>0.9201093958403965</v>
       </c>
       <c r="M11">
-        <v>-4.986992177342874</v>
+        <v>-4.465914261323394</v>
       </c>
       <c r="N11">
-        <v>6.132654740999283E-07</v>
+        <v>7.972753691252837E-06</v>
       </c>
       <c r="O11">
-        <v>0.02044326590566852</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P11">
-        <v>6.212351484733601</v>
+        <v>5.098391652711118</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1379,49 +1700,49 @@
         <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="C12">
-        <v>144835191</v>
+        <v>78977907</v>
       </c>
       <c r="D12">
-        <v>144835193</v>
+        <v>78977909</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="H12">
-        <v>0.1341314200061252</v>
+        <v>-0.2375756143002867</v>
       </c>
       <c r="I12">
-        <v>0.02710848171461371</v>
+        <v>0.0532173527019339</v>
       </c>
       <c r="J12">
-        <v>1.143543094210334</v>
+        <v>0.7885372640333101</v>
       </c>
       <c r="K12">
-        <v>1.08437064951448</v>
+        <v>0.7104336583811045</v>
       </c>
       <c r="L12">
-        <v>1.205944488539647</v>
+        <v>0.8752274183996855</v>
       </c>
       <c r="M12">
-        <v>4.947950291654189</v>
+        <v>-4.464250892578753</v>
       </c>
       <c r="N12">
-        <v>7.499905469605847E-07</v>
+        <v>8.034936905080339E-06</v>
       </c>
       <c r="O12">
-        <v>0.02272819080180526</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P12">
-        <v>6.12494421051327</v>
+        <v>5.095017529215887</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1429,49 +1750,49 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="C13">
-        <v>100761836</v>
+        <v>72032668</v>
       </c>
       <c r="D13">
-        <v>100761838</v>
+        <v>72032670</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="F13" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H13">
-        <v>-0.1787067179081828</v>
+        <v>-0.1858291331828451</v>
       </c>
       <c r="I13">
-        <v>0.03658920868470163</v>
+        <v>0.04172053142039819</v>
       </c>
       <c r="J13">
-        <v>0.8363511502462745</v>
+        <v>0.8304154733092789</v>
       </c>
       <c r="K13">
-        <v>0.7784735614640668</v>
+        <v>0.7652139032236582</v>
       </c>
       <c r="L13">
-        <v>0.8985317949690621</v>
+        <v>0.9011726726427747</v>
       </c>
       <c r="M13">
-        <v>-4.884137272498658</v>
+        <v>-4.454141087282236</v>
       </c>
       <c r="N13">
-        <v>1.038826863802125E-06</v>
+        <v>8.422970128084284E-06</v>
       </c>
       <c r="O13">
-        <v>0.02829244862107176</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P13">
-        <v>5.983456828151154</v>
+        <v>5.074534739523489</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1479,49 +1800,49 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="C14">
-        <v>22729886</v>
+        <v>141444469</v>
       </c>
       <c r="D14">
-        <v>22729888</v>
+        <v>141444471</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>240</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="H14">
-        <v>-0.2900713121344975</v>
+        <v>-0.3168894735725721</v>
       </c>
       <c r="I14">
-        <v>0.05961292698332182</v>
+        <v>0.07128985751071927</v>
       </c>
       <c r="J14">
-        <v>0.7482102092089666</v>
+        <v>0.728411259370893</v>
       </c>
       <c r="K14">
-        <v>0.6657037667680307</v>
+        <v>0.6334241444780244</v>
       </c>
       <c r="L14">
-        <v>0.8409423907610221</v>
+        <v>0.8376424665900907</v>
       </c>
       <c r="M14">
-        <v>-4.865912928845989</v>
+        <v>-4.445084962119949</v>
       </c>
       <c r="N14">
-        <v>1.139296708102336E-06</v>
+        <v>8.785713910805938E-06</v>
       </c>
       <c r="O14">
-        <v>0.02829244862107176</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P14">
-        <v>5.943363157474255</v>
+        <v>5.05622294277127</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1529,49 +1850,49 @@
         <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C15">
-        <v>17809294</v>
+        <v>209496087</v>
       </c>
       <c r="D15">
-        <v>17809296</v>
+        <v>209496089</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H15">
-        <v>0.1956847015968328</v>
+        <v>-0.1613346561378852</v>
       </c>
       <c r="I15">
-        <v>0.04028430242917515</v>
+        <v>0.03631381064188399</v>
       </c>
       <c r="J15">
-        <v>1.216143396806645</v>
+        <v>0.8510072286552179</v>
       </c>
       <c r="K15">
-        <v>1.123814744349766</v>
+        <v>0.7925430783747285</v>
       </c>
       <c r="L15">
-        <v>1.316057445439683</v>
+        <v>0.9137841500156455</v>
       </c>
       <c r="M15">
-        <v>4.857591910418979</v>
+        <v>-4.442790588102131</v>
       </c>
       <c r="N15">
-        <v>1.188219866432093E-06</v>
+        <v>8.87995835624709E-06</v>
       </c>
       <c r="O15">
-        <v>0.02829244862107176</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P15">
-        <v>5.925103190715681</v>
+        <v>5.051589070898708</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1579,49 +1900,49 @@
         <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="C16">
-        <v>73634112</v>
+        <v>100761836</v>
       </c>
       <c r="D16">
-        <v>73634114</v>
+        <v>100761838</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H16">
-        <v>-0.2498990010180363</v>
+        <v>-0.1589771004029464</v>
       </c>
       <c r="I16">
-        <v>0.0517235687779691</v>
+        <v>0.0360496677233991</v>
       </c>
       <c r="J16">
-        <v>0.7788794451299746</v>
+        <v>0.8530158924656938</v>
       </c>
       <c r="K16">
-        <v>0.7037899505959442</v>
+        <v>0.7948251299934492</v>
       </c>
       <c r="L16">
-        <v>0.8619804666609475</v>
+        <v>0.9154669188743957</v>
       </c>
       <c r="M16">
-        <v>-4.831433849639494</v>
+        <v>-4.409946344658197</v>
       </c>
       <c r="N16">
-        <v>1.355532576507687E-06</v>
+        <v>1.033962346630785E-05</v>
       </c>
       <c r="O16">
-        <v>0.03012454266076093</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P16">
-        <v>5.867890040881337</v>
+        <v>4.985495276472468</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1629,49 +1950,49 @@
         <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C17">
-        <v>51341139</v>
+        <v>48965203</v>
       </c>
       <c r="D17">
-        <v>51341141</v>
+        <v>48965205</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>255</v>
       </c>
       <c r="H17">
-        <v>-0.1547947118061566</v>
+        <v>1.412137953175473</v>
       </c>
       <c r="I17">
-        <v>0.03232509342184434</v>
+        <v>0.3206068467422191</v>
       </c>
       <c r="J17">
-        <v>0.8565910074558705</v>
+        <v>4.10472173259473</v>
       </c>
       <c r="K17">
-        <v>0.8040042444022218</v>
+        <v>2.189690216924451</v>
       </c>
       <c r="L17">
-        <v>0.9126172643526351</v>
+        <v>7.694577238281922</v>
       </c>
       <c r="M17">
-        <v>-4.788685674812339</v>
+        <v>4.404578278738036</v>
       </c>
       <c r="N17">
-        <v>1.678771920442052E-06</v>
+        <v>1.059898642460666E-05</v>
       </c>
       <c r="O17">
-        <v>0.03303700970470917</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P17">
-        <v>5.775008303517646</v>
+        <v>4.974735664098175</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1679,49 +2000,49 @@
         <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="C18">
-        <v>2931066</v>
+        <v>44677142</v>
       </c>
       <c r="D18">
-        <v>2931068</v>
+        <v>44677144</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="G18" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="H18">
-        <v>0.1862359077035007</v>
+        <v>-0.1634486441049782</v>
       </c>
       <c r="I18">
-        <v>0.03889666110671749</v>
+        <v>0.03717903277542639</v>
       </c>
       <c r="J18">
-        <v>1.204706426384278</v>
+        <v>0.8492101098269895</v>
       </c>
       <c r="K18">
-        <v>1.116277906160025</v>
+        <v>0.7895293983390111</v>
       </c>
       <c r="L18">
-        <v>1.300140015100793</v>
+        <v>0.9134021002251699</v>
       </c>
       <c r="M18">
-        <v>4.787966432196864</v>
+        <v>-4.396258641053463</v>
       </c>
       <c r="N18">
-        <v>1.684798200635534E-06</v>
+        <v>1.10132695264388E-05</v>
       </c>
       <c r="O18">
-        <v>0.03303700970470917</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P18">
-        <v>5.773452109984844</v>
+        <v>4.958083732208951</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1729,49 +2050,49 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="C19">
-        <v>116727544</v>
+        <v>159470190</v>
       </c>
       <c r="D19">
-        <v>116727546</v>
+        <v>159470192</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="F19" t="s">
-        <v>135</v>
+        <v>244</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H19">
-        <v>-0.1678716327314894</v>
+        <v>-0.1211209274328648</v>
       </c>
       <c r="I19">
-        <v>0.03516147837782266</v>
+        <v>0.02757615020084862</v>
       </c>
       <c r="J19">
-        <v>0.8454623574125761</v>
+        <v>0.8859268202588838</v>
       </c>
       <c r="K19">
-        <v>0.7891594683905651</v>
+        <v>0.8393150061757153</v>
       </c>
       <c r="L19">
-        <v>0.9057821979370383</v>
+        <v>0.935127246717784</v>
       </c>
       <c r="M19">
-        <v>-4.774305304448485</v>
+        <v>-4.392234831573316</v>
       </c>
       <c r="N19">
-        <v>1.803286414103524E-06</v>
+        <v>1.121914231633804E-05</v>
       </c>
       <c r="O19">
-        <v>0.03339596274599021</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P19">
-        <v>5.743935289258761</v>
+        <v>4.950040342858756</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1779,49 +2100,49 @@
         <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C20">
-        <v>159470190</v>
+        <v>98245946</v>
       </c>
       <c r="D20">
-        <v>159470192</v>
+        <v>98245948</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
-        <v>137</v>
+        <v>240</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H20">
-        <v>-0.1305311024122238</v>
+        <v>-0.09299971280967748</v>
       </c>
       <c r="I20">
-        <v>0.02754873326990839</v>
+        <v>0.02118571846461312</v>
       </c>
       <c r="J20">
-        <v>0.8776291961392045</v>
+        <v>0.9111937619821333</v>
       </c>
       <c r="K20">
-        <v>0.8314986304443046</v>
+        <v>0.8741328103165766</v>
       </c>
       <c r="L20">
-        <v>0.9263190313426957</v>
+        <v>0.9498260013537987</v>
       </c>
       <c r="M20">
-        <v>-4.738188908119543</v>
+        <v>-4.389736084004729</v>
       </c>
       <c r="N20">
-        <v>2.156367480790809E-06</v>
+        <v>1.134883101455951E-05</v>
       </c>
       <c r="O20">
-        <v>0.03783301347837353</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P20">
-        <v>5.666277226193984</v>
+        <v>4.945048870635819</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1829,49 +2150,49 @@
         <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="C21">
-        <v>1208907</v>
+        <v>87152629</v>
       </c>
       <c r="D21">
-        <v>1208909</v>
+        <v>87152631</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>245</v>
       </c>
       <c r="G21" t="s">
-        <v>147</v>
+        <v>256</v>
       </c>
       <c r="H21">
-        <v>0.08543057770978181</v>
+        <v>-0.1468581147905268</v>
       </c>
       <c r="I21">
-        <v>0.01809489363508604</v>
+        <v>0.03346698351476854</v>
       </c>
       <c r="J21">
-        <v>1.089185944936593</v>
+        <v>0.8634164747532168</v>
       </c>
       <c r="K21">
-        <v>1.05123455260017</v>
+        <v>0.8085989687322691</v>
       </c>
       <c r="L21">
-        <v>1.12850744842158</v>
+        <v>0.9219502345446434</v>
       </c>
       <c r="M21">
-        <v>4.721253378584757</v>
+        <v>-4.388149135870588</v>
       </c>
       <c r="N21">
-        <v>2.343957209019662E-06</v>
+        <v>1.143193770957173E-05</v>
       </c>
       <c r="O21">
-        <v>0.03906802397919567</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P21">
-        <v>5.630050321005597</v>
+        <v>4.941880150597682</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1879,49 +2200,49 @@
         <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="C22">
-        <v>150052438</v>
+        <v>98478400</v>
       </c>
       <c r="D22">
-        <v>150052440</v>
+        <v>98478402</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="H22">
-        <v>-0.3478524842117631</v>
+        <v>-0.2254784522288338</v>
       </c>
       <c r="I22">
-        <v>0.07384339614591937</v>
+        <v>0.05152550940110959</v>
       </c>
       <c r="J22">
-        <v>0.7062030446297364</v>
+        <v>0.7981342582769602</v>
       </c>
       <c r="K22">
-        <v>0.6110460947578563</v>
+        <v>0.7214684753437175</v>
       </c>
       <c r="L22">
-        <v>0.8161785903270389</v>
+        <v>0.8829468175055453</v>
       </c>
       <c r="M22">
-        <v>-4.710678305266241</v>
+        <v>-4.376054790134265</v>
       </c>
       <c r="N22">
-        <v>2.46893685886636E-06</v>
+        <v>1.208466497941945E-05</v>
       </c>
       <c r="O22">
-        <v>0.03919155099237905</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P22">
-        <v>5.607490016668539</v>
+        <v>4.917765384942407</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1929,49 +2250,49 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="C23">
-        <v>54356179</v>
+        <v>119240673</v>
       </c>
       <c r="D23">
-        <v>54356181</v>
+        <v>119240675</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H23">
-        <v>0.1715248804191997</v>
+        <v>-0.2208029195363752</v>
       </c>
       <c r="I23">
-        <v>0.03652930993645108</v>
+        <v>0.05047127454231551</v>
       </c>
       <c r="J23">
-        <v>1.187113678250811</v>
+        <v>0.8018746985558877</v>
       </c>
       <c r="K23">
-        <v>1.105092175865608</v>
+        <v>0.726348900866292</v>
       </c>
       <c r="L23">
-        <v>1.27522293240953</v>
+        <v>0.8852536727421321</v>
       </c>
       <c r="M23">
-        <v>4.695541216562708</v>
+        <v>-4.374823531576409</v>
       </c>
       <c r="N23">
-        <v>2.6590174316342E-06</v>
+        <v>1.215307527204524E-05</v>
       </c>
       <c r="O23">
-        <v>0.04029027817512238</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P23">
-        <v>5.575278815568874</v>
+        <v>4.91531381221502</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1979,49 +2300,49 @@
         <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="C24">
-        <v>171347336</v>
+        <v>128180711</v>
       </c>
       <c r="D24">
-        <v>171347338</v>
+        <v>128180713</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="F24" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H24">
-        <v>-0.1546265688523801</v>
+        <v>-0.1852179342837096</v>
       </c>
       <c r="I24">
-        <v>0.03303613974862577</v>
+        <v>0.0424121959308922</v>
       </c>
       <c r="J24">
-        <v>0.8567350493075143</v>
+        <v>0.8309231774706979</v>
       </c>
       <c r="K24">
-        <v>0.8030195549643289</v>
+        <v>0.76464446041717</v>
       </c>
       <c r="L24">
-        <v>0.914043674496263</v>
+        <v>0.902946876096269</v>
       </c>
       <c r="M24">
-        <v>-4.68052775018341</v>
+        <v>-4.36709135705941</v>
       </c>
       <c r="N24">
-        <v>2.861373753389433E-06</v>
+        <v>1.259120714668815E-05</v>
       </c>
       <c r="O24">
-        <v>0.04147138269852699</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P24">
-        <v>5.543425410830499</v>
+        <v>4.899932631130115</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2029,49 +2350,49 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>131</v>
       </c>
       <c r="C25">
-        <v>8054404</v>
+        <v>23083970</v>
       </c>
       <c r="D25">
-        <v>8054406</v>
+        <v>23083972</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>169</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H25">
-        <v>-0.1331680566710953</v>
+        <v>-0.1340044065815634</v>
       </c>
       <c r="I25">
-        <v>0.02853359783607224</v>
+        <v>0.03073946265228265</v>
       </c>
       <c r="J25">
-        <v>0.8753179767219386</v>
+        <v>0.8745862106593711</v>
       </c>
       <c r="K25">
-        <v>0.8277096248095046</v>
+        <v>0.8234498364445394</v>
       </c>
       <c r="L25">
-        <v>0.9256646744308707</v>
+        <v>0.9288981623679455</v>
       </c>
       <c r="M25">
-        <v>-4.667061526420757</v>
+        <v>-4.359360737609137</v>
       </c>
       <c r="N25">
-        <v>3.055378599946572E-06</v>
+        <v>1.30442933246908E-05</v>
       </c>
       <c r="O25">
-        <v>0.0424380629862829</v>
+        <v>0.1810210935889529</v>
       </c>
       <c r="P25">
-        <v>5.514934967522858</v>
+        <v>4.884579443853943</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2079,49 +2400,49 @@
         <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="C26">
-        <v>72032668</v>
+        <v>19578939</v>
       </c>
       <c r="D26">
-        <v>72032670</v>
+        <v>19578941</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>170</v>
       </c>
       <c r="F26" t="s">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H26">
-        <v>-0.1984076799821131</v>
+        <v>-0.1672577091961036</v>
       </c>
       <c r="I26">
-        <v>0.0428654791036074</v>
+        <v>0.03857350877931986</v>
       </c>
       <c r="J26">
-        <v>0.8200354729354664</v>
+        <v>0.8459815660129567</v>
       </c>
       <c r="K26">
-        <v>0.753955089907314</v>
+        <v>0.7843810079441671</v>
       </c>
       <c r="L26">
-        <v>0.8919074701852089</v>
+        <v>0.9124198607377266</v>
       </c>
       <c r="M26">
-        <v>-4.628612210365236</v>
+        <v>-4.336077128813708</v>
       </c>
       <c r="N26">
-        <v>3.681243780725059E-06</v>
+        <v>1.450480661867481E-05</v>
       </c>
       <c r="O26">
-        <v>0.0463962041903269</v>
+        <v>0.1932376753121038</v>
       </c>
       <c r="P26">
-        <v>5.434005421586737</v>
+        <v>4.838488056933863</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2129,49 +2450,49 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
       <c r="C27">
-        <v>65113438</v>
+        <v>22820528</v>
       </c>
       <c r="D27">
-        <v>65113440</v>
+        <v>22820530</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="H27">
-        <v>0.1633722081873597</v>
+        <v>-0.1949685263718639</v>
       </c>
       <c r="I27">
-        <v>0.03541638617735111</v>
+        <v>0.04513188798614825</v>
       </c>
       <c r="J27">
-        <v>1.177474873924013</v>
+        <v>0.8228605560556134</v>
       </c>
       <c r="K27">
-        <v>1.098512911817048</v>
+        <v>0.7531993076740395</v>
       </c>
       <c r="L27">
-        <v>1.26211268325381</v>
+        <v>0.8989645739360931</v>
       </c>
       <c r="M27">
-        <v>4.6128988815871</v>
+        <v>-4.319972752562514</v>
       </c>
       <c r="N27">
-        <v>3.970915122834226E-06</v>
+        <v>1.560484672527268E-05</v>
       </c>
       <c r="O27">
-        <v>0.0463962041903269</v>
+        <v>0.199896886177918</v>
       </c>
       <c r="P27">
-        <v>5.401109395756235</v>
+        <v>4.806740492727275</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2179,49 +2500,49 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>142</v>
       </c>
       <c r="C28">
-        <v>150562302</v>
+        <v>63492831</v>
       </c>
       <c r="D28">
-        <v>150562304</v>
+        <v>63492833</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="F28" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H28">
-        <v>0.2291584070865701</v>
+        <v>-0.1810444541111151</v>
       </c>
       <c r="I28">
-        <v>0.04972620808580724</v>
+        <v>0.04224867506552562</v>
       </c>
       <c r="J28">
-        <v>1.257541226675013</v>
+        <v>0.8343982654381158</v>
       </c>
       <c r="K28">
-        <v>1.140762422065434</v>
+        <v>0.7680884865310726</v>
       </c>
       <c r="L28">
-        <v>1.386274570584152</v>
+        <v>0.9064326279781711</v>
       </c>
       <c r="M28">
-        <v>4.608403011368488</v>
+        <v>-4.285210218552984</v>
       </c>
       <c r="N28">
-        <v>4.057735767723988E-06</v>
+        <v>1.825664747345196E-05</v>
       </c>
       <c r="O28">
-        <v>0.0463962041903269</v>
+        <v>0.2157627722246203</v>
       </c>
       <c r="P28">
-        <v>5.391716236838315</v>
+        <v>4.738578970364455</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2229,49 +2550,49 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="C29">
-        <v>124898657</v>
+        <v>17579056</v>
       </c>
       <c r="D29">
-        <v>124898659</v>
+        <v>17579058</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>172</v>
       </c>
       <c r="F29" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="H29">
-        <v>-0.1715136723281447</v>
+        <v>-0.242658403462908</v>
       </c>
       <c r="I29">
-        <v>0.03725469772043672</v>
+        <v>0.05667427299207778</v>
       </c>
       <c r="J29">
-        <v>0.8423887505258664</v>
+        <v>0.7845394639676248</v>
       </c>
       <c r="K29">
-        <v>0.7830712913833783</v>
+        <v>0.7020589266534717</v>
       </c>
       <c r="L29">
-        <v>0.9061994927165745</v>
+        <v>0.8767101266791708</v>
       </c>
       <c r="M29">
-        <v>-4.603813285916364</v>
+        <v>-4.281632399533876</v>
       </c>
       <c r="N29">
-        <v>4.148244018841374E-06</v>
+        <v>1.855272839625722E-05</v>
       </c>
       <c r="O29">
-        <v>0.0463962041903269</v>
+        <v>0.2157627722246203</v>
       </c>
       <c r="P29">
-        <v>5.382135704327541</v>
+        <v>4.731592213256162</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2279,49 +2600,49 @@
         <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="C30">
-        <v>8849264</v>
+        <v>73634112</v>
       </c>
       <c r="D30">
-        <v>8849266</v>
+        <v>73634114</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>173</v>
       </c>
       <c r="F30" t="s">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="G30" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="H30">
-        <v>-0.1688823158181779</v>
+        <v>-0.2204358163601196</v>
       </c>
       <c r="I30">
-        <v>0.03675406923569184</v>
+        <v>0.05151764310481474</v>
       </c>
       <c r="J30">
-        <v>0.8446082945736414</v>
+        <v>0.8021691233435174</v>
       </c>
       <c r="K30">
-        <v>0.7859053074399927</v>
+        <v>0.7251269460800081</v>
       </c>
       <c r="L30">
-        <v>0.9076960856598661</v>
+        <v>0.8873967598698345</v>
       </c>
       <c r="M30">
-        <v>-4.594928380179914</v>
+        <v>-4.278841248844284</v>
       </c>
       <c r="N30">
-        <v>4.3289792806011E-06</v>
+        <v>1.878687914571633E-05</v>
       </c>
       <c r="O30">
-        <v>0.0463962041903269</v>
+        <v>0.2157627722246203</v>
       </c>
       <c r="P30">
-        <v>5.363614492805957</v>
+        <v>4.726145358396772</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2329,49 +2650,49 @@
         <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C31">
-        <v>2164145</v>
+        <v>2756010</v>
       </c>
       <c r="D31">
-        <v>2164147</v>
+        <v>2756012</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="F31" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>145</v>
+        <v>255</v>
       </c>
       <c r="H31">
-        <v>0.2054688288930741</v>
+        <v>0.09458018232985194</v>
       </c>
       <c r="I31">
-        <v>0.04473913747598162</v>
+        <v>0.02215419708932356</v>
       </c>
       <c r="J31">
-        <v>1.22810069910702</v>
+        <v>1.099197295799746</v>
       </c>
       <c r="K31">
-        <v>1.124998531970886</v>
+        <v>1.052489966937881</v>
       </c>
       <c r="L31">
-        <v>1.340651818011603</v>
+        <v>1.147977399355851</v>
       </c>
       <c r="M31">
-        <v>4.592597007561463</v>
+        <v>4.269176713943361</v>
       </c>
       <c r="N31">
-        <v>4.377639075138429E-06</v>
+        <v>1.961957879112965E-05</v>
       </c>
       <c r="O31">
-        <v>0.0463962041903269</v>
+        <v>0.217815255767202</v>
       </c>
       <c r="P31">
-        <v>5.358760047733209</v>
+        <v>4.707310320638626</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2379,49 +2700,49 @@
         <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="C32">
-        <v>206218878</v>
+        <v>132715433</v>
       </c>
       <c r="D32">
-        <v>206218880</v>
+        <v>132715435</v>
       </c>
       <c r="E32" t="s">
-        <v>115</v>
+        <v>174</v>
       </c>
       <c r="F32" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H32">
-        <v>-0.1946676331842265</v>
+        <v>-0.1702956094302643</v>
       </c>
       <c r="I32">
-        <v>0.04239742421531552</v>
+        <v>0.04001669292844798</v>
       </c>
       <c r="J32">
-        <v>0.8231081864445863</v>
+        <v>0.8434154581787813</v>
       </c>
       <c r="K32">
-        <v>0.7574747634860827</v>
+        <v>0.7797929163938677</v>
       </c>
       <c r="L32">
-        <v>0.8944285925435241</v>
+        <v>0.9122289009555788</v>
       </c>
       <c r="M32">
-        <v>-4.591496695544663</v>
+        <v>-4.255614269144182</v>
       </c>
       <c r="N32">
-        <v>4.400786114115599E-06</v>
+        <v>2.084758562913148E-05</v>
       </c>
       <c r="O32">
-        <v>0.0463962041903269</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P32">
-        <v>5.356469738393795</v>
+        <v>4.680944233671499</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2429,49 +2750,49 @@
         <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="C33">
-        <v>61323104</v>
+        <v>184408209</v>
       </c>
       <c r="D33">
-        <v>61323106</v>
+        <v>184408211</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>175</v>
       </c>
       <c r="F33" t="s">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H33">
-        <v>-0.1747414518115619</v>
+        <v>-0.1371548039180857</v>
       </c>
       <c r="I33">
-        <v>0.03816098785788128</v>
+        <v>0.03232418520479689</v>
       </c>
       <c r="J33">
-        <v>0.8396740889212785</v>
+        <v>0.8718352521721685</v>
       </c>
       <c r="K33">
-        <v>0.7791625315309979</v>
+        <v>0.8183140901832804</v>
       </c>
       <c r="L33">
-        <v>0.9048851132772026</v>
+        <v>0.9288569218695323</v>
       </c>
       <c r="M33">
-        <v>-4.579059967271603</v>
+        <v>-4.243101660540296</v>
       </c>
       <c r="N33">
-        <v>4.670702874900912E-06</v>
+        <v>2.2045150790244E-05</v>
       </c>
       <c r="O33">
-        <v>0.0463962041903269</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P33">
-        <v>5.330617759322213</v>
+        <v>4.656686926225414</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2479,49 +2800,49 @@
         <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="C34">
-        <v>65423474</v>
+        <v>109493047</v>
       </c>
       <c r="D34">
-        <v>65423476</v>
+        <v>109493049</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>176</v>
       </c>
       <c r="F34" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>149</v>
+        <v>253</v>
       </c>
       <c r="H34">
-        <v>0.1195643492726645</v>
+        <v>-0.146611449662748</v>
       </c>
       <c r="I34">
-        <v>0.02611668086629316</v>
+        <v>0.03459440866907053</v>
       </c>
       <c r="J34">
-        <v>1.127005763735072</v>
+        <v>0.8636294757571681</v>
       </c>
       <c r="K34">
-        <v>1.070768479019109</v>
+        <v>0.8070132074632991</v>
       </c>
       <c r="L34">
-        <v>1.186196658175446</v>
+        <v>0.9242176763637672</v>
       </c>
       <c r="M34">
-        <v>4.578083634929936</v>
+        <v>-4.238009993615742</v>
       </c>
       <c r="N34">
-        <v>4.692550842316833E-06</v>
+        <v>2.255097336016849E-05</v>
       </c>
       <c r="O34">
-        <v>0.0463962041903269</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P34">
-        <v>5.328591013236604</v>
+        <v>4.646834708073072</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2529,49 +2850,49 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="C35">
-        <v>45344681</v>
+        <v>8849048</v>
       </c>
       <c r="D35">
-        <v>45344683</v>
+        <v>8849050</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="F35" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="G35" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H35">
-        <v>-0.3851837730072031</v>
+        <v>-0.2820354370023119</v>
       </c>
       <c r="I35">
-        <v>0.08430169457167519</v>
+        <v>0.06664178899528557</v>
       </c>
       <c r="J35">
-        <v>0.680325599234481</v>
+        <v>0.7542469558083821</v>
       </c>
       <c r="K35">
-        <v>0.5767121224521731</v>
+        <v>0.6618932807952214</v>
       </c>
       <c r="L35">
-        <v>0.8025545206259114</v>
+        <v>0.859486698010787</v>
       </c>
       <c r="M35">
-        <v>-4.56911067997229</v>
+        <v>-4.232110830972197</v>
       </c>
       <c r="N35">
-        <v>4.897980893511088E-06</v>
+        <v>2.315082708298323E-05</v>
       </c>
       <c r="O35">
-        <v>0.0463962041903269</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P35">
-        <v>5.309982913343377</v>
+        <v>4.635433488829212</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2579,49 +2900,49 @@
         <v>49</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="C36">
-        <v>846054</v>
+        <v>247416803</v>
       </c>
       <c r="D36">
-        <v>846056</v>
+        <v>247416805</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G36" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H36">
-        <v>0.1708588245926534</v>
+        <v>-0.2561760942300889</v>
       </c>
       <c r="I36">
-        <v>0.03742211410833941</v>
+        <v>0.06077730463823946</v>
       </c>
       <c r="J36">
-        <v>1.186323257530024</v>
+        <v>0.7740056588603229</v>
       </c>
       <c r="K36">
-        <v>1.102425584176194</v>
+        <v>0.68708489396106</v>
       </c>
       <c r="L36">
-        <v>1.27660577870961</v>
+        <v>0.8719224730645224</v>
       </c>
       <c r="M36">
-        <v>4.565718123193314</v>
+        <v>-4.214995971850152</v>
       </c>
       <c r="N36">
-        <v>4.977872869437936E-06</v>
+        <v>2.497826474281003E-05</v>
       </c>
       <c r="O36">
-        <v>0.0463962041903269</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P36">
-        <v>5.302956199090747</v>
+        <v>4.60243773564958</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2629,49 +2950,49 @@
         <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="C37">
-        <v>16014345</v>
+        <v>219280584</v>
       </c>
       <c r="D37">
-        <v>16014347</v>
+        <v>219280586</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="F37" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>95</v>
+        <v>256</v>
       </c>
       <c r="H37">
-        <v>-0.1676688143315588</v>
+        <v>0.3674915271496308</v>
       </c>
       <c r="I37">
-        <v>0.03675644663232247</v>
+        <v>0.08723287529617561</v>
       </c>
       <c r="J37">
-        <v>0.8456338501254591</v>
+        <v>1.444107562770418</v>
       </c>
       <c r="K37">
-        <v>0.7868559171379341</v>
+        <v>1.217157513475487</v>
       </c>
       <c r="L37">
-        <v>0.9088024794667109</v>
+        <v>1.71337450556905</v>
       </c>
       <c r="M37">
-        <v>-4.561616524272945</v>
+        <v>4.212764120200243</v>
       </c>
       <c r="N37">
-        <v>5.076129256874779E-06</v>
+        <v>2.522644659172931E-05</v>
       </c>
       <c r="O37">
-        <v>0.0463962041903269</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P37">
-        <v>5.294467327705632</v>
+        <v>4.598143920084428</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2679,49 +3000,49 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="C38">
-        <v>44677142</v>
+        <v>171347336</v>
       </c>
       <c r="D38">
-        <v>44677144</v>
+        <v>171347338</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="F38" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H38">
-        <v>-0.1702174836055627</v>
+        <v>-0.1381823738554371</v>
       </c>
       <c r="I38">
-        <v>0.03739117837595021</v>
+        <v>0.03281878560304029</v>
       </c>
       <c r="J38">
-        <v>0.8434813532810387</v>
+        <v>0.8709398406045062</v>
       </c>
       <c r="K38">
-        <v>0.7838772446739684</v>
+        <v>0.8166815729765227</v>
       </c>
       <c r="L38">
-        <v>0.9076176125366727</v>
+        <v>0.9288028909328759</v>
       </c>
       <c r="M38">
-        <v>-4.552343386830665</v>
+        <v>-4.210465784042785</v>
       </c>
       <c r="N38">
-        <v>5.305165129633891E-06</v>
+        <v>2.548447200680856E-05</v>
       </c>
       <c r="O38">
-        <v>0.0463962041903269</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P38">
-        <v>5.275301093615104</v>
+        <v>4.593724359795693</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2729,49 +3050,49 @@
         <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>134</v>
       </c>
       <c r="C39">
-        <v>1649123</v>
+        <v>85651326</v>
       </c>
       <c r="D39">
-        <v>1649125</v>
+        <v>85651328</v>
       </c>
       <c r="E39" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="F39" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>254</v>
       </c>
       <c r="H39">
-        <v>0.2445790131375105</v>
+        <v>-0.1313646291728204</v>
       </c>
       <c r="I39">
-        <v>0.05375065629479577</v>
+        <v>0.03122145263635542</v>
       </c>
       <c r="J39">
-        <v>1.277083564617278</v>
+        <v>0.8768979735074931</v>
       </c>
       <c r="K39">
-        <v>1.149388041202113</v>
+        <v>0.8248468453466716</v>
       </c>
       <c r="L39">
-        <v>1.418965895373174</v>
+        <v>0.9322337356074496</v>
       </c>
       <c r="M39">
-        <v>4.550251661972563</v>
+        <v>-4.207511761315502</v>
       </c>
       <c r="N39">
-        <v>5.358179193699782E-06</v>
+        <v>2.581979690813768E-05</v>
       </c>
       <c r="O39">
-        <v>0.0463962041903269</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P39">
-        <v>5.270982766365422</v>
+        <v>4.588047178104533</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2779,49 +3100,49 @@
         <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="C40">
-        <v>74319354</v>
+        <v>61323104</v>
       </c>
       <c r="D40">
-        <v>74319356</v>
+        <v>61323106</v>
       </c>
       <c r="E40" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H40">
-        <v>-0.2942687175393541</v>
+        <v>-0.1600999976355799</v>
       </c>
       <c r="I40">
-        <v>0.06470965408872208</v>
+        <v>0.03808017111959838</v>
       </c>
       <c r="J40">
-        <v>0.7450762494838378</v>
+        <v>0.8520585808625161</v>
       </c>
       <c r="K40">
-        <v>0.65632623184891</v>
+        <v>0.7907797764426454</v>
       </c>
       <c r="L40">
-        <v>0.8458272587719732</v>
+        <v>0.9180859789907655</v>
       </c>
       <c r="M40">
-        <v>-4.547524193776223</v>
+        <v>-4.20428776784521</v>
       </c>
       <c r="N40">
-        <v>5.428068202653507E-06</v>
+        <v>2.619055537498344E-05</v>
       </c>
       <c r="O40">
-        <v>0.0463962041903269</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P40">
-        <v>5.265354704149739</v>
+        <v>4.58185529219205</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2829,49 +3150,49 @@
         <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="C41">
-        <v>42338081</v>
+        <v>54903891</v>
       </c>
       <c r="D41">
-        <v>42338083</v>
+        <v>54903893</v>
       </c>
       <c r="E41" t="s">
-        <v>123</v>
+        <v>182</v>
       </c>
       <c r="F41" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G41" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H41">
-        <v>0.3849656970672061</v>
+        <v>-0.1465616879343381</v>
       </c>
       <c r="I41">
-        <v>0.08487251640004626</v>
+        <v>0.0348767620802016</v>
       </c>
       <c r="J41">
-        <v>1.469563910224474</v>
+        <v>0.8636724525218776</v>
       </c>
       <c r="K41">
-        <v>1.244356615502513</v>
+        <v>0.8066068650292095</v>
       </c>
       <c r="L41">
-        <v>1.735529878918287</v>
+        <v>0.9247752995731604</v>
       </c>
       <c r="M41">
-        <v>4.535811042206783</v>
+        <v>-4.202273353165899</v>
       </c>
       <c r="N41">
-        <v>5.738253949058097E-06</v>
+        <v>2.642477680727264E-05</v>
       </c>
       <c r="O41">
-        <v>0.0476951959498679</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P41">
-        <v>5.241220235763401</v>
+        <v>4.577988672205182</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2879,49 +3200,49 @@
         <v>55</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="C42">
-        <v>5692752</v>
+        <v>74319354</v>
       </c>
       <c r="D42">
-        <v>5692754</v>
+        <v>74319356</v>
       </c>
       <c r="E42" t="s">
-        <v>124</v>
+        <v>183</v>
       </c>
       <c r="F42" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="G42" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H42">
-        <v>0.08150835548225215</v>
+        <v>-0.2646107524766072</v>
       </c>
       <c r="I42">
-        <v>0.01798842664988099</v>
+        <v>0.06318509485404072</v>
       </c>
       <c r="J42">
-        <v>1.084922282595006</v>
+        <v>0.7675046411204388</v>
       </c>
       <c r="K42">
-        <v>1.047337979256309</v>
+        <v>0.6781062701091637</v>
       </c>
       <c r="L42">
-        <v>1.123855319470949</v>
+        <v>0.8686888768136363</v>
       </c>
       <c r="M42">
-        <v>4.531155340525093</v>
+        <v>-4.187866665197943</v>
       </c>
       <c r="N42">
-        <v>5.866198193329506E-06</v>
+        <v>2.815888594449048E-05</v>
       </c>
       <c r="O42">
-        <v>0.0476951959498679</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P42">
-        <v>5.231643268185453</v>
+        <v>4.550384531267535</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2929,49 +3250,49 @@
         <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="C43">
-        <v>209496087</v>
+        <v>74466094</v>
       </c>
       <c r="D43">
-        <v>209496089</v>
+        <v>74466096</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="F43" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H43">
-        <v>-0.1648285578029534</v>
+        <v>-0.2052684993186862</v>
       </c>
       <c r="I43">
-        <v>0.03649536232962371</v>
+        <v>0.04907380196550469</v>
       </c>
       <c r="J43">
-        <v>0.8480390813089457</v>
+        <v>0.8144286135240906</v>
       </c>
       <c r="K43">
-        <v>0.7894978618116389</v>
+        <v>0.7397437890453431</v>
       </c>
       <c r="L43">
-        <v>0.9109211287501912</v>
+        <v>0.8966536473158756</v>
       </c>
       <c r="M43">
-        <v>-4.516424753212003</v>
+        <v>-4.182852990745958</v>
       </c>
       <c r="N43">
-        <v>6.289245111198626E-06</v>
+        <v>2.878735521280053E-05</v>
       </c>
       <c r="O43">
-        <v>0.04843908730917341</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P43">
-        <v>5.201401479151777</v>
+        <v>4.540798233324366</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2979,49 +3300,49 @@
         <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C44">
-        <v>145872879</v>
+        <v>32837792</v>
       </c>
       <c r="D44">
-        <v>145872881</v>
+        <v>32837794</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G44" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="H44">
-        <v>-0.2781491184414303</v>
+        <v>-0.1206238634113921</v>
       </c>
       <c r="I44">
-        <v>0.06160229470715204</v>
+        <v>0.02884460981854047</v>
       </c>
       <c r="J44">
-        <v>0.7571839030119361</v>
+        <v>0.886367292069168</v>
       </c>
       <c r="K44">
-        <v>0.6710662608832253</v>
+        <v>0.8376472081496648</v>
       </c>
       <c r="L44">
-        <v>0.854352984794382</v>
+        <v>0.9379210827736155</v>
       </c>
       <c r="M44">
-        <v>-4.515239566378313</v>
+        <v>-4.181851103905679</v>
       </c>
       <c r="N44">
-        <v>6.324522800053137E-06</v>
+        <v>2.891453104489945E-05</v>
       </c>
       <c r="O44">
-        <v>0.04843908730917341</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P44">
-        <v>5.19897223744417</v>
+        <v>4.5388838469801</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3029,49 +3350,49 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>139</v>
       </c>
       <c r="C45">
-        <v>65057877</v>
+        <v>1649123</v>
       </c>
       <c r="D45">
-        <v>65057879</v>
+        <v>1649125</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>186</v>
       </c>
       <c r="F45" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="H45">
-        <v>-0.2675048388132154</v>
+        <v>0.2213662194953877</v>
       </c>
       <c r="I45">
-        <v>0.05932034298306114</v>
+        <v>0.05297438734146</v>
       </c>
       <c r="J45">
-        <v>0.7652866275348196</v>
+        <v>1.247780308375066</v>
       </c>
       <c r="K45">
-        <v>0.6812877139498661</v>
+        <v>1.124724737795732</v>
       </c>
       <c r="L45">
-        <v>0.8596421310581785</v>
+        <v>1.384299327335808</v>
       </c>
       <c r="M45">
-        <v>-4.509495821519459</v>
+        <v>4.178740531127146</v>
       </c>
       <c r="N45">
-        <v>6.498187447998673E-06</v>
+        <v>2.931278750449831E-05</v>
       </c>
       <c r="O45">
-        <v>0.04843908730917341</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P45">
-        <v>5.187207765065935</v>
+        <v>4.532942880290358</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3079,49 +3400,49 @@
         <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="C46">
-        <v>25088770</v>
+        <v>46436715</v>
       </c>
       <c r="D46">
-        <v>25088772</v>
+        <v>46436717</v>
       </c>
       <c r="E46" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="F46" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="G46" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H46">
-        <v>-0.1531089290970303</v>
+        <v>-0.2999866498327037</v>
       </c>
       <c r="I46">
-        <v>0.03396458879903156</v>
+        <v>0.07180711632035995</v>
       </c>
       <c r="J46">
-        <v>0.8580362516065669</v>
+        <v>0.7408281107949173</v>
       </c>
       <c r="K46">
-        <v>0.8027770098769504</v>
+        <v>0.6435690128281002</v>
       </c>
       <c r="L46">
-        <v>0.9170992691779954</v>
+        <v>0.8527854492748237</v>
       </c>
       <c r="M46">
-        <v>-4.507898800217359</v>
+        <v>-4.177672982916408</v>
       </c>
       <c r="N46">
-        <v>6.54727894029454E-06</v>
+        <v>2.945066681790423E-05</v>
       </c>
       <c r="O46">
-        <v>0.04843908730917341</v>
+        <v>0.2179728930897232</v>
       </c>
       <c r="P46">
-        <v>5.183939156000244</v>
+        <v>4.530904867530268</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3129,49 +3450,49 @@
         <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="C47">
-        <v>16029222</v>
+        <v>144835191</v>
       </c>
       <c r="D47">
-        <v>16029224</v>
+        <v>144835193</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>241</v>
       </c>
       <c r="G47" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H47">
-        <v>-0.1697942477247952</v>
+        <v>0.1114957433283545</v>
       </c>
       <c r="I47">
-        <v>0.03775072885013118</v>
+        <v>0.02683130924553245</v>
       </c>
       <c r="J47">
-        <v>0.8438384204109861</v>
+        <v>1.117948985253656</v>
       </c>
       <c r="K47">
-        <v>0.7836566377166965</v>
+        <v>1.060676957624453</v>
       </c>
       <c r="L47">
-        <v>0.9086419300121203</v>
+        <v>1.17831345787771</v>
       </c>
       <c r="M47">
-        <v>-4.497774027062398</v>
+        <v>4.155434321451127</v>
       </c>
       <c r="N47">
-        <v>6.866862527783294E-06</v>
+        <v>3.24670202700968E-05</v>
       </c>
       <c r="O47">
-        <v>0.04843908730917341</v>
+        <v>0.2337036366232791</v>
       </c>
       <c r="P47">
-        <v>5.163241646944334</v>
+        <v>4.488557567845701</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3179,49 +3500,49 @@
         <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="C48">
-        <v>58762291</v>
+        <v>121286029</v>
       </c>
       <c r="D48">
-        <v>58762293</v>
+        <v>121286031</v>
       </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="F48" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
       <c r="G48" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H48">
-        <v>-0.180069836185475</v>
+        <v>-0.2074050941839421</v>
       </c>
       <c r="I48">
-        <v>0.04006006290062911</v>
+        <v>0.05000815484993988</v>
       </c>
       <c r="J48">
-        <v>0.8352118813626639</v>
+        <v>0.8126903671557134</v>
       </c>
       <c r="K48">
-        <v>0.7721425338274259</v>
+        <v>0.7368143805738542</v>
       </c>
       <c r="L48">
-        <v>0.9034327940873021</v>
+        <v>0.8963799435528075</v>
       </c>
       <c r="M48">
-        <v>-4.494996341671925</v>
+        <v>-4.147425451035041</v>
       </c>
       <c r="N48">
-        <v>6.957114324732439E-06</v>
+        <v>3.362348995870552E-05</v>
       </c>
       <c r="O48">
-        <v>0.04843908730917341</v>
+        <v>0.2337036366232791</v>
       </c>
       <c r="P48">
-        <v>5.157570859917829</v>
+        <v>4.473357210850579</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3229,49 +3550,49 @@
         <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="C49">
-        <v>123631741</v>
+        <v>71892529</v>
       </c>
       <c r="D49">
-        <v>123631743</v>
+        <v>71892531</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="F49" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="G49" t="s">
-        <v>95</v>
+        <v>254</v>
       </c>
       <c r="H49">
-        <v>-0.1748131949371334</v>
+        <v>-0.1576899332011726</v>
       </c>
       <c r="I49">
-        <v>0.03889531060753058</v>
+        <v>0.03804581609231906</v>
       </c>
       <c r="J49">
-        <v>0.8396138502385594</v>
+        <v>0.8541145734864639</v>
       </c>
       <c r="K49">
-        <v>0.7779861143086159</v>
+        <v>0.7927412822230582</v>
       </c>
       <c r="L49">
-        <v>0.9061233928820148</v>
+        <v>0.920239327761787</v>
       </c>
       <c r="M49">
-        <v>-4.494454272420377</v>
+        <v>-4.144737829214499</v>
       </c>
       <c r="N49">
-        <v>6.974858904999005E-06</v>
+        <v>3.40202708890891E-05</v>
       </c>
       <c r="O49">
-        <v>0.04843908730917341</v>
+        <v>0.2337036366232791</v>
       </c>
       <c r="P49">
-        <v>5.156464573344707</v>
+        <v>4.46826223260563</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3279,49 +3600,49 @@
         <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="C50">
-        <v>184815092</v>
+        <v>116267257</v>
       </c>
       <c r="D50">
-        <v>184815094</v>
+        <v>116267259</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="F50" t="s">
-        <v>138</v>
+        <v>240</v>
       </c>
       <c r="G50" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H50">
-        <v>0.1541197061963773</v>
+        <v>-0.1538167941384521</v>
       </c>
       <c r="I50">
-        <v>0.03434047423123995</v>
+        <v>0.03714606132844687</v>
       </c>
       <c r="J50">
-        <v>1.166630531323597</v>
+        <v>0.8574290926584316</v>
       </c>
       <c r="K50">
-        <v>1.090693370242258</v>
+        <v>0.7972222853469264</v>
       </c>
       <c r="L50">
-        <v>1.247854652599634</v>
+        <v>0.9221827618844495</v>
       </c>
       <c r="M50">
-        <v>4.487990036438482</v>
+        <v>-4.140864162646968</v>
       </c>
       <c r="N50">
-        <v>7.189829057126753E-06</v>
+        <v>3.45999824996097E-05</v>
       </c>
       <c r="O50">
-        <v>0.04891299400045429</v>
+        <v>0.2337036366232791</v>
       </c>
       <c r="P50">
-        <v>5.143281435128816</v>
+        <v>4.460924120869792</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3329,49 +3650,49 @@
         <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>84</v>
+        <v>127</v>
       </c>
       <c r="C51">
-        <v>43359427</v>
+        <v>15489748</v>
       </c>
       <c r="D51">
-        <v>43359429</v>
+        <v>15489750</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="F51" t="s">
-        <v>95</v>
+        <v>240</v>
       </c>
       <c r="G51" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="H51">
-        <v>-0.2915494902659279</v>
+        <v>-0.1127067616462895</v>
       </c>
       <c r="I51">
-        <v>0.0653221852109763</v>
+        <v>0.02726888848551347</v>
       </c>
       <c r="J51">
-        <v>0.7471050382609986</v>
+        <v>0.8934126045494035</v>
       </c>
       <c r="K51">
-        <v>0.6573237441041681</v>
+        <v>0.8469168145857874</v>
       </c>
       <c r="L51">
-        <v>0.8491492102657315</v>
+        <v>0.9424610165026988</v>
       </c>
       <c r="M51">
-        <v>-4.463253783141013</v>
+        <v>-4.133163025921085</v>
       </c>
       <c r="N51">
-        <v>8.072434724198435E-06</v>
+        <v>3.57804740893308E-05</v>
       </c>
       <c r="O51">
-        <v>0.05334518765895207</v>
+        <v>0.2337036366232791</v>
       </c>
       <c r="P51">
-        <v>5.09299545811446</v>
+        <v>4.446353909352317</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3379,49 +3700,49 @@
         <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="C52">
-        <v>54673917</v>
+        <v>108854549</v>
       </c>
       <c r="D52">
-        <v>54673919</v>
+        <v>108854551</v>
       </c>
       <c r="E52" t="s">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="F52" t="s">
-        <v>144</v>
+        <v>240</v>
       </c>
       <c r="G52" t="s">
-        <v>95</v>
+        <v>252</v>
       </c>
       <c r="H52">
-        <v>-0.1514336136434184</v>
+        <v>-0.104998490937256</v>
       </c>
       <c r="I52">
-        <v>0.03394682764448337</v>
+        <v>0.02540413402025195</v>
       </c>
       <c r="J52">
-        <v>0.8594749377887451</v>
+        <v>0.9003258812334853</v>
       </c>
       <c r="K52">
-        <v>0.8041510348005764</v>
+        <v>0.856595318801284</v>
       </c>
       <c r="L52">
-        <v>0.9186050091574636</v>
+        <v>0.9462889588903938</v>
       </c>
       <c r="M52">
-        <v>-4.460906192158652</v>
+        <v>-4.133126161810991</v>
       </c>
       <c r="N52">
-        <v>8.16138115861826E-06</v>
+        <v>3.578621581762706E-05</v>
       </c>
       <c r="O52">
-        <v>0.05334518765895207</v>
+        <v>0.2337036366232791</v>
       </c>
       <c r="P52">
-        <v>5.088236338941138</v>
+        <v>4.446284223275617</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3429,49 +3750,49 @@
         <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C53">
-        <v>151057195</v>
+        <v>72589846</v>
       </c>
       <c r="D53">
-        <v>151057197</v>
+        <v>72589848</v>
       </c>
       <c r="E53" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="F53" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="G53" t="s">
-        <v>147</v>
+        <v>253</v>
       </c>
       <c r="H53">
-        <v>-0.1815452242617983</v>
+        <v>0.2288999004485047</v>
       </c>
       <c r="I53">
-        <v>0.04074592088145209</v>
+        <v>0.05556735092272988</v>
       </c>
       <c r="J53">
-        <v>0.8339805282968777</v>
+        <v>1.257216185934681</v>
       </c>
       <c r="K53">
-        <v>0.7699684325166939</v>
+        <v>1.127485457067692</v>
       </c>
       <c r="L53">
-        <v>0.9033143336863482</v>
+        <v>1.401873991605065</v>
       </c>
       <c r="M53">
-        <v>-4.455543532565962</v>
+        <v>4.119323607252851</v>
       </c>
       <c r="N53">
-        <v>8.368091274654686E-06</v>
+        <v>3.799861808103318E-05</v>
       </c>
       <c r="O53">
-        <v>0.05364445374033489</v>
+        <v>0.2378662154227688</v>
       </c>
       <c r="P53">
-        <v>5.077373591399521</v>
+        <v>4.420232197348842</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3479,49 +3800,49 @@
         <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>127</v>
       </c>
       <c r="C54">
-        <v>201476584</v>
+        <v>31107745</v>
       </c>
       <c r="D54">
-        <v>201476586</v>
+        <v>31107747</v>
       </c>
       <c r="E54" t="s">
-        <v>95</v>
+        <v>194</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
+        <v>248</v>
       </c>
       <c r="G54" t="s">
-        <v>95</v>
+        <v>253</v>
       </c>
       <c r="H54">
-        <v>-0.2245299529033507</v>
+        <v>0.317558317553131</v>
       </c>
       <c r="I54">
-        <v>0.05058398529420337</v>
+        <v>0.07718072739397691</v>
       </c>
       <c r="J54">
-        <v>0.7988916472172481</v>
+        <v>1.373769357396834</v>
       </c>
       <c r="K54">
-        <v>0.7234869703425505</v>
+        <v>1.180911823153503</v>
       </c>
       <c r="L54">
-        <v>0.8821552980992945</v>
+        <v>1.598122916817638</v>
       </c>
       <c r="M54">
-        <v>-4.438755697034424</v>
+        <v>4.114476868456061</v>
       </c>
       <c r="N54">
-        <v>9.048044760276728E-06</v>
+        <v>3.880584684068657E-05</v>
       </c>
       <c r="O54">
-        <v>0.05690895790345298</v>
+        <v>0.2378662154227688</v>
       </c>
       <c r="P54">
-        <v>5.043445259641718</v>
+        <v>4.411102834731982</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3529,49 +3850,49 @@
         <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="C55">
-        <v>1193648</v>
+        <v>43368914</v>
       </c>
       <c r="D55">
-        <v>1193650</v>
+        <v>43368916</v>
       </c>
       <c r="E55" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="F55" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="G55" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="H55">
-        <v>0.165487108573361</v>
+        <v>0.09749814506038551</v>
       </c>
       <c r="I55">
-        <v>0.03736341876398045</v>
+        <v>0.0237098206638466</v>
       </c>
       <c r="J55">
-        <v>1.17996775115371</v>
+        <v>1.102409396658568</v>
       </c>
       <c r="K55">
-        <v>1.096645695691603</v>
+        <v>1.052352096153111</v>
       </c>
       <c r="L55">
-        <v>1.269620533990854</v>
+        <v>1.15484777602827</v>
       </c>
       <c r="M55">
-        <v>4.429121157748445</v>
+        <v>4.112141818476655</v>
       </c>
       <c r="N55">
-        <v>9.461786047827603E-06</v>
+        <v>3.920053628541022E-05</v>
       </c>
       <c r="O55">
-        <v>0.0584091822375811</v>
+        <v>0.2378662154227688</v>
       </c>
       <c r="P55">
-        <v>5.024026876547271</v>
+        <v>4.406707991545837</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3579,49 +3900,2899 @@
         <v>69</v>
       </c>
       <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56">
+        <v>1200585</v>
+      </c>
+      <c r="D56">
+        <v>1200587</v>
+      </c>
+      <c r="E56" t="s">
+        <v>195</v>
+      </c>
+      <c r="F56" t="s">
+        <v>240</v>
+      </c>
+      <c r="G56" t="s">
+        <v>255</v>
+      </c>
+      <c r="H56">
+        <v>0.1353136177637046</v>
+      </c>
+      <c r="I56">
+        <v>0.03308258919677577</v>
+      </c>
+      <c r="J56">
+        <v>1.144895787710073</v>
+      </c>
+      <c r="K56">
+        <v>1.073015527252986</v>
+      </c>
+      <c r="L56">
+        <v>1.221591236495895</v>
+      </c>
+      <c r="M56">
+        <v>4.090176163626643</v>
+      </c>
+      <c r="N56">
+        <v>4.310456680075021E-05</v>
+      </c>
+      <c r="O56">
+        <v>0.2378662154227688</v>
+      </c>
+      <c r="P56">
+        <v>4.365476715191988</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57">
+        <v>4501145</v>
+      </c>
+      <c r="D57">
+        <v>4501147</v>
+      </c>
+      <c r="E57" t="s">
+        <v>196</v>
+      </c>
+      <c r="F57" t="s">
+        <v>240</v>
+      </c>
+      <c r="G57" t="s">
+        <v>150</v>
+      </c>
+      <c r="H57">
+        <v>-0.2979835864899525</v>
+      </c>
+      <c r="I57">
+        <v>0.07286920124792565</v>
+      </c>
+      <c r="J57">
+        <v>0.7423135236182624</v>
+      </c>
+      <c r="K57">
+        <v>0.6435184400320352</v>
+      </c>
+      <c r="L57">
+        <v>0.8562759558515987</v>
+      </c>
+      <c r="M57">
+        <v>-4.089293986853399</v>
+      </c>
+      <c r="N57">
+        <v>4.326881692314774E-05</v>
+      </c>
+      <c r="O57">
+        <v>0.2378662154227688</v>
+      </c>
+      <c r="P57">
+        <v>4.363824979328035</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58">
+        <v>74466024</v>
+      </c>
+      <c r="D58">
+        <v>74466026</v>
+      </c>
+      <c r="E58" t="s">
+        <v>184</v>
+      </c>
+      <c r="F58" t="s">
+        <v>240</v>
+      </c>
+      <c r="G58" t="s">
+        <v>150</v>
+      </c>
+      <c r="H58">
+        <v>-0.2107634079601234</v>
+      </c>
+      <c r="I58">
+        <v>0.05155729088324346</v>
+      </c>
+      <c r="J58">
+        <v>0.8099656756452593</v>
+      </c>
+      <c r="K58">
+        <v>0.7321178056922286</v>
+      </c>
+      <c r="L58">
+        <v>0.896091299272774</v>
+      </c>
+      <c r="M58">
+        <v>-4.087945746362387</v>
+      </c>
+      <c r="N58">
+        <v>4.352098972931734E-05</v>
+      </c>
+      <c r="O58">
+        <v>0.2378662154227688</v>
+      </c>
+      <c r="P58">
+        <v>4.361301236722249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59">
+        <v>57750676</v>
+      </c>
+      <c r="D59">
+        <v>57750678</v>
+      </c>
+      <c r="E59" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" t="s">
+        <v>150</v>
+      </c>
+      <c r="G59" t="s">
+        <v>150</v>
+      </c>
+      <c r="H59">
+        <v>-0.1399644180530205</v>
+      </c>
+      <c r="I59">
+        <v>0.03425117749350141</v>
+      </c>
+      <c r="J59">
+        <v>0.8693891694077869</v>
+      </c>
+      <c r="K59">
+        <v>0.8129420165224214</v>
+      </c>
+      <c r="L59">
+        <v>0.9297557667358127</v>
+      </c>
+      <c r="M59">
+        <v>-4.08641186363816</v>
+      </c>
+      <c r="N59">
+        <v>4.38095799331393E-05</v>
+      </c>
+      <c r="O59">
+        <v>0.2378662154227688</v>
+      </c>
+      <c r="P59">
+        <v>4.358430911021648</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C56">
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60">
+        <v>43369027</v>
+      </c>
+      <c r="D60">
+        <v>43369029</v>
+      </c>
+      <c r="E60" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" t="s">
+        <v>150</v>
+      </c>
+      <c r="H60">
+        <v>0.1070610085479637</v>
+      </c>
+      <c r="I60">
+        <v>0.026221673752363</v>
+      </c>
+      <c r="J60">
+        <v>1.113002155053407</v>
+      </c>
+      <c r="K60">
+        <v>1.057246061760084</v>
+      </c>
+      <c r="L60">
+        <v>1.171698663120334</v>
+      </c>
+      <c r="M60">
+        <v>4.082920471021257</v>
+      </c>
+      <c r="N60">
+        <v>4.447324593228875E-05</v>
+      </c>
+      <c r="O60">
+        <v>0.2378662154227688</v>
+      </c>
+      <c r="P60">
+        <v>4.35190117189947</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61">
+        <v>150052438</v>
+      </c>
+      <c r="D61">
+        <v>150052440</v>
+      </c>
+      <c r="E61" t="s">
+        <v>197</v>
+      </c>
+      <c r="F61" t="s">
+        <v>240</v>
+      </c>
+      <c r="G61" t="s">
+        <v>150</v>
+      </c>
+      <c r="H61">
+        <v>-0.2905207692297426</v>
+      </c>
+      <c r="I61">
+        <v>0.07125328695744969</v>
+      </c>
+      <c r="J61">
+        <v>0.7478739963839827</v>
+      </c>
+      <c r="K61">
+        <v>0.6503954961920762</v>
+      </c>
+      <c r="L61">
+        <v>0.8599621580131163</v>
+      </c>
+      <c r="M61">
+        <v>-4.077296383579228</v>
+      </c>
+      <c r="N61">
+        <v>4.556239951112861E-05</v>
+      </c>
+      <c r="O61">
+        <v>0.2378662154227688</v>
+      </c>
+      <c r="P61">
+        <v>4.341393412182899</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62">
+        <v>16014345</v>
+      </c>
+      <c r="D62">
+        <v>16014347</v>
+      </c>
+      <c r="E62" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" t="s">
+        <v>240</v>
+      </c>
+      <c r="G62" t="s">
+        <v>150</v>
+      </c>
+      <c r="H62">
+        <v>-0.1439684564515863</v>
+      </c>
+      <c r="I62">
+        <v>0.03531590288305697</v>
+      </c>
+      <c r="J62">
+        <v>0.8659150616620885</v>
+      </c>
+      <c r="K62">
+        <v>0.8080055479709838</v>
+      </c>
+      <c r="L62">
+        <v>0.9279749327169037</v>
+      </c>
+      <c r="M62">
+        <v>-4.076589997665217</v>
+      </c>
+      <c r="N62">
+        <v>4.570097193013744E-05</v>
+      </c>
+      <c r="O62">
+        <v>0.2378662154227688</v>
+      </c>
+      <c r="P62">
+        <v>4.340074563619275</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63">
+        <v>26913986</v>
+      </c>
+      <c r="D63">
+        <v>26913988</v>
+      </c>
+      <c r="E63" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" t="s">
+        <v>240</v>
+      </c>
+      <c r="G63" t="s">
+        <v>150</v>
+      </c>
+      <c r="H63">
+        <v>-0.226598008756438</v>
+      </c>
+      <c r="I63">
+        <v>0.05560377763246202</v>
+      </c>
+      <c r="J63">
+        <v>0.7972412018650497</v>
+      </c>
+      <c r="K63">
+        <v>0.7149237321348725</v>
+      </c>
+      <c r="L63">
+        <v>0.8890368376123823</v>
+      </c>
+      <c r="M63">
+        <v>-4.075226871351056</v>
+      </c>
+      <c r="N63">
+        <v>4.596950832481425E-05</v>
+      </c>
+      <c r="O63">
+        <v>0.2378662154227688</v>
+      </c>
+      <c r="P63">
+        <v>4.337530141299983</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>146</v>
+      </c>
+      <c r="C64">
+        <v>35041783</v>
+      </c>
+      <c r="D64">
+        <v>35041785</v>
+      </c>
+      <c r="E64" t="s">
+        <v>200</v>
+      </c>
+      <c r="F64" t="s">
+        <v>240</v>
+      </c>
+      <c r="G64" t="s">
+        <v>256</v>
+      </c>
+      <c r="H64">
+        <v>-1.194255666260466</v>
+      </c>
+      <c r="I64">
+        <v>0.2934227057236431</v>
+      </c>
+      <c r="J64">
+        <v>0.302929350823087</v>
+      </c>
+      <c r="K64">
+        <v>0.1704431273683917</v>
+      </c>
+      <c r="L64">
+        <v>0.5383977224951737</v>
+      </c>
+      <c r="M64">
+        <v>-4.070086066840587</v>
+      </c>
+      <c r="N64">
+        <v>4.699577262764361E-05</v>
+      </c>
+      <c r="O64">
+        <v>0.2378662154227688</v>
+      </c>
+      <c r="P64">
+        <v>4.327941206044231</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65">
+        <v>116727544</v>
+      </c>
+      <c r="D65">
+        <v>116727546</v>
+      </c>
+      <c r="E65" t="s">
+        <v>201</v>
+      </c>
+      <c r="F65" t="s">
+        <v>240</v>
+      </c>
+      <c r="G65" t="s">
+        <v>150</v>
+      </c>
+      <c r="H65">
+        <v>-0.1402713449145078</v>
+      </c>
+      <c r="I65">
+        <v>0.03447791434007324</v>
+      </c>
+      <c r="J65">
+        <v>0.8691223714644316</v>
+      </c>
+      <c r="K65">
+        <v>0.8123314639468472</v>
+      </c>
+      <c r="L65">
+        <v>0.9298835882951635</v>
+      </c>
+      <c r="M65">
+        <v>-4.068440553884438</v>
+      </c>
+      <c r="N65">
+        <v>4.732883213647713E-05</v>
+      </c>
+      <c r="O65">
+        <v>0.2378662154227688</v>
+      </c>
+      <c r="P65">
+        <v>4.324874211841772</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>138</v>
+      </c>
+      <c r="C66">
+        <v>93923489</v>
+      </c>
+      <c r="D66">
+        <v>93923491</v>
+      </c>
+      <c r="E66" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" t="s">
+        <v>240</v>
+      </c>
+      <c r="G66" t="s">
+        <v>150</v>
+      </c>
+      <c r="H66">
+        <v>-0.1402750442234992</v>
+      </c>
+      <c r="I66">
+        <v>0.03448684659400025</v>
+      </c>
+      <c r="J66">
+        <v>0.8691191563181752</v>
+      </c>
+      <c r="K66">
+        <v>0.8123142376619563</v>
+      </c>
+      <c r="L66">
+        <v>0.9298964278323559</v>
+      </c>
+      <c r="M66">
+        <v>-4.067494076071981</v>
+      </c>
+      <c r="N66">
+        <v>4.752141624727917E-05</v>
+      </c>
+      <c r="O66">
+        <v>0.2378662154227688</v>
+      </c>
+      <c r="P66">
+        <v>4.323110624861605</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C67">
+        <v>49597729</v>
+      </c>
+      <c r="D67">
+        <v>49597731</v>
+      </c>
+      <c r="E67" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67" t="s">
+        <v>240</v>
+      </c>
+      <c r="G67" t="s">
+        <v>255</v>
+      </c>
+      <c r="H67">
+        <v>-0.3061181031857528</v>
+      </c>
+      <c r="I67">
+        <v>0.07528052615198945</v>
+      </c>
+      <c r="J67">
+        <v>0.7362996549858882</v>
+      </c>
+      <c r="K67">
+        <v>0.6352953798158288</v>
+      </c>
+      <c r="L67">
+        <v>0.8533623872559923</v>
+      </c>
+      <c r="M67">
+        <v>-4.066365085808622</v>
+      </c>
+      <c r="N67">
+        <v>4.775210873080108E-05</v>
+      </c>
+      <c r="O67">
+        <v>0.2378662154227688</v>
+      </c>
+      <c r="P67">
+        <v>4.321007445233547</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68">
+        <v>22729886</v>
+      </c>
+      <c r="D68">
+        <v>22729888</v>
+      </c>
+      <c r="E68" t="s">
+        <v>204</v>
+      </c>
+      <c r="F68" t="s">
+        <v>241</v>
+      </c>
+      <c r="G68" t="s">
+        <v>150</v>
+      </c>
+      <c r="H68">
+        <v>-0.2371407655425412</v>
+      </c>
+      <c r="I68">
+        <v>0.05833396302536262</v>
+      </c>
+      <c r="J68">
+        <v>0.7888802330474316</v>
+      </c>
+      <c r="K68">
+        <v>0.7036506849274856</v>
+      </c>
+      <c r="L68">
+        <v>0.8844331930936784</v>
+      </c>
+      <c r="M68">
+        <v>-4.065226383460976</v>
+      </c>
+      <c r="N68">
+        <v>4.798586100306279E-05</v>
+      </c>
+      <c r="O68">
+        <v>0.2378662154227688</v>
+      </c>
+      <c r="P68">
+        <v>4.318886708309948</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69">
+        <v>50508282</v>
+      </c>
+      <c r="D69">
+        <v>50508284</v>
+      </c>
+      <c r="E69" t="s">
+        <v>205</v>
+      </c>
+      <c r="F69" t="s">
+        <v>240</v>
+      </c>
+      <c r="G69" t="s">
+        <v>255</v>
+      </c>
+      <c r="H69">
+        <v>1.163157619480385</v>
+      </c>
+      <c r="I69">
+        <v>0.2863207600236309</v>
+      </c>
+      <c r="J69">
+        <v>3.20002179103325</v>
+      </c>
+      <c r="K69">
+        <v>1.825728785437449</v>
+      </c>
+      <c r="L69">
+        <v>5.608795536755522</v>
+      </c>
+      <c r="M69">
+        <v>4.062428513337232</v>
+      </c>
+      <c r="N69">
+        <v>4.856482248962128E-05</v>
+      </c>
+      <c r="O69">
+        <v>0.2378662154227688</v>
+      </c>
+      <c r="P69">
+        <v>4.313678194324849</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70">
+        <v>8849264</v>
+      </c>
+      <c r="D70">
+        <v>8849266</v>
+      </c>
+      <c r="E70" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" t="s">
+        <v>246</v>
+      </c>
+      <c r="G70" t="s">
+        <v>150</v>
+      </c>
+      <c r="H70">
+        <v>-0.1522395451790657</v>
+      </c>
+      <c r="I70">
+        <v>0.03754708727165153</v>
+      </c>
+      <c r="J70">
+        <v>0.858782538882817</v>
+      </c>
+      <c r="K70">
+        <v>0.797853339144725</v>
+      </c>
+      <c r="L70">
+        <v>0.92436468321434</v>
+      </c>
+      <c r="M70">
+        <v>-4.054629965771226</v>
+      </c>
+      <c r="N70">
+        <v>5.021372652241635E-05</v>
+      </c>
+      <c r="O70">
+        <v>0.2397760724413773</v>
+      </c>
+      <c r="P70">
+        <v>4.299177547036986</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71">
+        <v>113981967</v>
+      </c>
+      <c r="D71">
+        <v>113981969</v>
+      </c>
+      <c r="E71" t="s">
+        <v>206</v>
+      </c>
+      <c r="F71" t="s">
+        <v>240</v>
+      </c>
+      <c r="G71" t="s">
+        <v>150</v>
+      </c>
+      <c r="H71">
+        <v>-0.09717946612979234</v>
+      </c>
+      <c r="I71">
+        <v>0.02397250029590289</v>
+      </c>
+      <c r="J71">
+        <v>0.9073931451837314</v>
+      </c>
+      <c r="K71">
+        <v>0.8657451452083446</v>
+      </c>
+      <c r="L71">
+        <v>0.9510446861683287</v>
+      </c>
+      <c r="M71">
+        <v>-4.053789339045337</v>
+      </c>
+      <c r="N71">
+        <v>5.039460115324182E-05</v>
+      </c>
+      <c r="O71">
+        <v>0.2397760724413773</v>
+      </c>
+      <c r="P71">
+        <v>4.29761598766055</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72">
+        <v>6295210</v>
+      </c>
+      <c r="D72">
+        <v>6295212</v>
+      </c>
+      <c r="E72" t="s">
+        <v>150</v>
+      </c>
+      <c r="F72" t="s">
+        <v>150</v>
+      </c>
+      <c r="G72" t="s">
+        <v>254</v>
+      </c>
+      <c r="H72">
+        <v>-0.1370354761040363</v>
+      </c>
+      <c r="I72">
+        <v>0.03383751950668161</v>
+      </c>
+      <c r="J72">
+        <v>0.8719392925743549</v>
+      </c>
+      <c r="K72">
+        <v>0.8159878648276918</v>
+      </c>
+      <c r="L72">
+        <v>0.9317272507424</v>
+      </c>
+      <c r="M72">
+        <v>-4.049808558720656</v>
+      </c>
+      <c r="N72">
+        <v>5.125954958204944E-05</v>
+      </c>
+      <c r="O72">
+        <v>0.2404563811929327</v>
+      </c>
+      <c r="P72">
+        <v>4.290225214283065</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73">
+        <v>43368834</v>
+      </c>
+      <c r="D73">
+        <v>43368836</v>
+      </c>
+      <c r="E73" t="s">
+        <v>150</v>
+      </c>
+      <c r="F73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G73" t="s">
+        <v>150</v>
+      </c>
+      <c r="H73">
+        <v>0.1506599349224745</v>
+      </c>
+      <c r="I73">
+        <v>0.03730320362239684</v>
+      </c>
+      <c r="J73">
+        <v>1.162601230772448</v>
+      </c>
+      <c r="K73">
+        <v>1.080633020276355</v>
+      </c>
+      <c r="L73">
+        <v>1.250786896598763</v>
+      </c>
+      <c r="M73">
+        <v>4.038793462554469</v>
+      </c>
+      <c r="N73">
+        <v>5.372684588609781E-05</v>
+      </c>
+      <c r="O73">
+        <v>0.2465664178709011</v>
+      </c>
+      <c r="P73">
+        <v>4.269808654582445</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74">
+        <v>31737495</v>
+      </c>
+      <c r="D74">
+        <v>31737497</v>
+      </c>
+      <c r="E74" t="s">
+        <v>207</v>
+      </c>
+      <c r="F74" t="s">
+        <v>240</v>
+      </c>
+      <c r="G74" t="s">
+        <v>252</v>
+      </c>
+      <c r="H74">
+        <v>-0.2214416271415249</v>
+      </c>
+      <c r="I74">
+        <v>0.05486269741148835</v>
+      </c>
+      <c r="J74">
+        <v>0.8013626986140769</v>
+      </c>
+      <c r="K74">
+        <v>0.719664219064833</v>
+      </c>
+      <c r="L74">
+        <v>0.8923358390174223</v>
+      </c>
+      <c r="M74">
+        <v>-4.036287634212361</v>
+      </c>
+      <c r="N74">
+        <v>5.430363442993677E-05</v>
+      </c>
+      <c r="O74">
+        <v>0.2465664178709011</v>
+      </c>
+      <c r="P74">
+        <v>4.265171103007004</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75">
+        <v>145872879</v>
+      </c>
+      <c r="D75">
+        <v>145872881</v>
+      </c>
+      <c r="E75" t="s">
+        <v>208</v>
+      </c>
+      <c r="F75" t="s">
+        <v>240</v>
+      </c>
+      <c r="G75" t="s">
+        <v>150</v>
+      </c>
+      <c r="H75">
+        <v>-0.2471141738725142</v>
+      </c>
+      <c r="I75">
+        <v>0.06125444753205751</v>
+      </c>
+      <c r="J75">
+        <v>0.7810515127645712</v>
+      </c>
+      <c r="K75">
+        <v>0.6926914029711966</v>
+      </c>
+      <c r="L75">
+        <v>0.8806828884769511</v>
+      </c>
+      <c r="M75">
+        <v>-4.034224188263016</v>
+      </c>
+      <c r="N75">
+        <v>5.478299552164091E-05</v>
+      </c>
+      <c r="O75">
+        <v>0.2465664178709011</v>
+      </c>
+      <c r="P75">
+        <v>4.261354224310043</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76">
+        <v>53869454</v>
+      </c>
+      <c r="D76">
+        <v>53869456</v>
+      </c>
+      <c r="E76" t="s">
+        <v>209</v>
+      </c>
+      <c r="F76" t="s">
+        <v>246</v>
+      </c>
+      <c r="G76" t="s">
+        <v>255</v>
+      </c>
+      <c r="H76">
+        <v>0.2121847828366866</v>
+      </c>
+      <c r="I76">
+        <v>0.05270915290585481</v>
+      </c>
+      <c r="J76">
+        <v>1.23637632509652</v>
+      </c>
+      <c r="K76">
+        <v>1.11502490555762</v>
+      </c>
+      <c r="L76">
+        <v>1.370934774317633</v>
+      </c>
+      <c r="M76">
+        <v>4.02557755416171</v>
+      </c>
+      <c r="N76">
+        <v>5.683564422464527E-05</v>
+      </c>
+      <c r="O76">
+        <v>0.2523942132556254</v>
+      </c>
+      <c r="P76">
+        <v>4.245379212969882</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" t="s">
+        <v>128</v>
+      </c>
+      <c r="C77">
+        <v>17936094</v>
+      </c>
+      <c r="D77">
+        <v>17936096</v>
+      </c>
+      <c r="E77" t="s">
+        <v>210</v>
+      </c>
+      <c r="F77" t="s">
+        <v>240</v>
+      </c>
+      <c r="G77" t="s">
+        <v>150</v>
+      </c>
+      <c r="H77">
+        <v>-0.1468923326903886</v>
+      </c>
+      <c r="I77">
+        <v>0.03664020843627951</v>
+      </c>
+      <c r="J77">
+        <v>0.8633869309602108</v>
+      </c>
+      <c r="K77">
+        <v>0.8035580728056011</v>
+      </c>
+      <c r="L77">
+        <v>0.9276703424187114</v>
+      </c>
+      <c r="M77">
+        <v>-4.00904740882812</v>
+      </c>
+      <c r="N77">
+        <v>6.096417745440591E-05</v>
+      </c>
+      <c r="O77">
+        <v>0.2585487748679557</v>
+      </c>
+      <c r="P77">
+        <v>4.214925281444758</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78">
+        <v>26183486</v>
+      </c>
+      <c r="D78">
+        <v>26183488</v>
+      </c>
+      <c r="E78" t="s">
+        <v>150</v>
+      </c>
+      <c r="F78" t="s">
+        <v>150</v>
+      </c>
+      <c r="G78" t="s">
+        <v>150</v>
+      </c>
+      <c r="H78">
+        <v>-0.2810725058682982</v>
+      </c>
+      <c r="I78">
+        <v>0.07011180652283637</v>
+      </c>
+      <c r="J78">
+        <v>0.7549735934797364</v>
+      </c>
+      <c r="K78">
+        <v>0.6580402880154976</v>
+      </c>
+      <c r="L78">
+        <v>0.8661857597969478</v>
+      </c>
+      <c r="M78">
+        <v>-4.008918323574348</v>
+      </c>
+      <c r="N78">
+        <v>6.099750769777456E-05</v>
+      </c>
+      <c r="O78">
+        <v>0.2585487748679557</v>
+      </c>
+      <c r="P78">
+        <v>4.214687909500975</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>137</v>
+      </c>
+      <c r="C79">
+        <v>80205311</v>
+      </c>
+      <c r="D79">
+        <v>80205313</v>
+      </c>
+      <c r="E79" t="s">
+        <v>211</v>
+      </c>
+      <c r="F79" t="s">
+        <v>240</v>
+      </c>
+      <c r="G79" t="s">
+        <v>150</v>
+      </c>
+      <c r="H79">
+        <v>0.130241997265018</v>
+      </c>
+      <c r="I79">
+        <v>0.03251992521026701</v>
+      </c>
+      <c r="J79">
+        <v>1.13910401002782</v>
+      </c>
+      <c r="K79">
+        <v>1.068765362113565</v>
+      </c>
+      <c r="L79">
+        <v>1.214071854925613</v>
+      </c>
+      <c r="M79">
+        <v>4.004990676420705</v>
+      </c>
+      <c r="N79">
+        <v>6.201992730186868E-05</v>
+      </c>
+      <c r="O79">
+        <v>0.2585487748679557</v>
+      </c>
+      <c r="P79">
+        <v>4.207468747166989</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
+        <v>136</v>
+      </c>
+      <c r="C80">
+        <v>129315049</v>
+      </c>
+      <c r="D80">
+        <v>129315051</v>
+      </c>
+      <c r="E80" t="s">
+        <v>212</v>
+      </c>
+      <c r="F80" t="s">
+        <v>246</v>
+      </c>
+      <c r="G80" t="s">
+        <v>255</v>
+      </c>
+      <c r="H80">
+        <v>0.9421416189581726</v>
+      </c>
+      <c r="I80">
+        <v>0.2352952835623303</v>
+      </c>
+      <c r="J80">
+        <v>2.56546979797857</v>
+      </c>
+      <c r="K80">
+        <v>1.617644918398934</v>
+      </c>
+      <c r="L80">
+        <v>4.068652650208542</v>
+      </c>
+      <c r="M80">
+        <v>4.004082039785541</v>
+      </c>
+      <c r="N80">
+        <v>6.225875777788398E-05</v>
+      </c>
+      <c r="O80">
+        <v>0.2585487748679557</v>
+      </c>
+      <c r="P80">
+        <v>4.205799548857364</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81">
+        <v>65057877</v>
+      </c>
+      <c r="D81">
+        <v>65057879</v>
+      </c>
+      <c r="E81" t="s">
+        <v>213</v>
+      </c>
+      <c r="F81" t="s">
+        <v>240</v>
+      </c>
+      <c r="G81" t="s">
+        <v>256</v>
+      </c>
+      <c r="H81">
+        <v>-0.2416001789830564</v>
+      </c>
+      <c r="I81">
+        <v>0.06036856055765685</v>
+      </c>
+      <c r="J81">
+        <v>0.7853701222677618</v>
+      </c>
+      <c r="K81">
+        <v>0.6977318748472453</v>
+      </c>
+      <c r="L81">
+        <v>0.8840161259451087</v>
+      </c>
+      <c r="M81">
+        <v>-4.002086131444341</v>
+      </c>
+      <c r="N81">
+        <v>6.278643240463314E-05</v>
+      </c>
+      <c r="O81">
+        <v>0.2585487748679557</v>
+      </c>
+      <c r="P81">
+        <v>4.202134193339161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82">
+        <v>46031990</v>
+      </c>
+      <c r="D82">
+        <v>46031992</v>
+      </c>
+      <c r="E82" t="s">
+        <v>214</v>
+      </c>
+      <c r="F82" t="s">
+        <v>240</v>
+      </c>
+      <c r="G82" t="s">
+        <v>254</v>
+      </c>
+      <c r="H82">
+        <v>-0.1227144742169652</v>
+      </c>
+      <c r="I82">
+        <v>0.03066530564875101</v>
+      </c>
+      <c r="J82">
+        <v>0.8845161786836991</v>
+      </c>
+      <c r="K82">
+        <v>0.8329202590208478</v>
+      </c>
+      <c r="L82">
+        <v>0.9393082493550337</v>
+      </c>
+      <c r="M82">
+        <v>-4.001736543003063</v>
+      </c>
+      <c r="N82">
+        <v>6.287929058693805E-05</v>
+      </c>
+      <c r="O82">
+        <v>0.2585487748679557</v>
+      </c>
+      <c r="P82">
+        <v>4.201492366712863</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83">
+        <v>77933530</v>
+      </c>
+      <c r="D83">
+        <v>77933532</v>
+      </c>
+      <c r="E83" t="s">
+        <v>215</v>
+      </c>
+      <c r="F83" t="s">
+        <v>240</v>
+      </c>
+      <c r="G83" t="s">
+        <v>150</v>
+      </c>
+      <c r="H83">
+        <v>-0.1545540849857475</v>
+      </c>
+      <c r="I83">
+        <v>0.0386566930508605</v>
+      </c>
+      <c r="J83">
+        <v>0.856797151027227</v>
+      </c>
+      <c r="K83">
+        <v>0.7942795424443765</v>
+      </c>
+      <c r="L83">
+        <v>0.9242355100185424</v>
+      </c>
+      <c r="M83">
+        <v>-3.998119673154688</v>
+      </c>
+      <c r="N83">
+        <v>6.384766995068027E-05</v>
+      </c>
+      <c r="O83">
+        <v>0.2593289909565082</v>
+      </c>
+      <c r="P83">
+        <v>4.19485494720286</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84">
+        <v>2159838</v>
+      </c>
+      <c r="D84">
+        <v>2159840</v>
+      </c>
+      <c r="E84" t="s">
+        <v>216</v>
+      </c>
+      <c r="F84" t="s">
+        <v>240</v>
+      </c>
+      <c r="G84" t="s">
+        <v>254</v>
+      </c>
+      <c r="H84">
+        <v>0.1404145247470952</v>
+      </c>
+      <c r="I84">
+        <v>0.03516028125082067</v>
+      </c>
+      <c r="J84">
+        <v>1.150750714652659</v>
+      </c>
+      <c r="K84">
+        <v>1.07411991205157</v>
+      </c>
+      <c r="L84">
+        <v>1.232848579023483</v>
+      </c>
+      <c r="M84">
+        <v>3.993555220603299</v>
+      </c>
+      <c r="N84">
+        <v>6.508991100673417E-05</v>
+      </c>
+      <c r="O84">
+        <v>0.2605222717428943</v>
+      </c>
+      <c r="P84">
+        <v>4.186486322240736</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C85">
+        <v>60396748</v>
+      </c>
+      <c r="D85">
+        <v>60396750</v>
+      </c>
+      <c r="E85" t="s">
+        <v>217</v>
+      </c>
+      <c r="F85" t="s">
+        <v>240</v>
+      </c>
+      <c r="G85" t="s">
+        <v>253</v>
+      </c>
+      <c r="H85">
+        <v>-0.1423742317396914</v>
+      </c>
+      <c r="I85">
+        <v>0.03568223302797816</v>
+      </c>
+      <c r="J85">
+        <v>0.8672966258210441</v>
+      </c>
+      <c r="K85">
+        <v>0.808713857612027</v>
+      </c>
+      <c r="L85">
+        <v>0.9301230961735676</v>
+      </c>
+      <c r="M85">
+        <v>-3.990059468196871</v>
+      </c>
+      <c r="N85">
+        <v>6.605673117123671E-05</v>
+      </c>
+      <c r="O85">
+        <v>0.2605222717428943</v>
+      </c>
+      <c r="P85">
+        <v>4.180082921250403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" t="s">
+        <v>138</v>
+      </c>
+      <c r="C86">
+        <v>98940362</v>
+      </c>
+      <c r="D86">
+        <v>98940364</v>
+      </c>
+      <c r="E86" t="s">
+        <v>218</v>
+      </c>
+      <c r="F86" t="s">
+        <v>240</v>
+      </c>
+      <c r="G86" t="s">
+        <v>255</v>
+      </c>
+      <c r="H86">
+        <v>0.1504752988842693</v>
+      </c>
+      <c r="I86">
+        <v>0.03773005433790803</v>
+      </c>
+      <c r="J86">
+        <v>1.162386592502775</v>
+      </c>
+      <c r="K86">
+        <v>1.079529989222881</v>
+      </c>
+      <c r="L86">
+        <v>1.251602645520628</v>
+      </c>
+      <c r="M86">
+        <v>3.988207849811767</v>
+      </c>
+      <c r="N86">
+        <v>6.657432339552927E-05</v>
+      </c>
+      <c r="O86">
+        <v>0.2605222717428943</v>
+      </c>
+      <c r="P86">
+        <v>4.176693238664181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>134</v>
+      </c>
+      <c r="C87">
+        <v>36488359</v>
+      </c>
+      <c r="D87">
+        <v>36488361</v>
+      </c>
+      <c r="E87" t="s">
+        <v>219</v>
+      </c>
+      <c r="F87" t="s">
+        <v>240</v>
+      </c>
+      <c r="G87" t="s">
+        <v>150</v>
+      </c>
+      <c r="H87">
+        <v>-0.1673113854160792</v>
+      </c>
+      <c r="I87">
+        <v>0.0419775024058642</v>
+      </c>
+      <c r="J87">
+        <v>0.8459361581389966</v>
+      </c>
+      <c r="K87">
+        <v>0.7791234460839567</v>
+      </c>
+      <c r="L87">
+        <v>0.9184783069278254</v>
+      </c>
+      <c r="M87">
+        <v>-3.98573940389331</v>
+      </c>
+      <c r="N87">
+        <v>6.727031138687229E-05</v>
+      </c>
+      <c r="O87">
+        <v>0.2605222717428943</v>
+      </c>
+      <c r="P87">
+        <v>4.172176562011157</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88">
+        <v>45366841</v>
+      </c>
+      <c r="D88">
+        <v>45366843</v>
+      </c>
+      <c r="E88" t="s">
+        <v>220</v>
+      </c>
+      <c r="F88" t="s">
+        <v>240</v>
+      </c>
+      <c r="G88" t="s">
+        <v>254</v>
+      </c>
+      <c r="H88">
+        <v>-0.1678041936356739</v>
+      </c>
+      <c r="I88">
+        <v>0.04215411869763736</v>
+      </c>
+      <c r="J88">
+        <v>0.8455193765521442</v>
+      </c>
+      <c r="K88">
+        <v>0.778470059173845</v>
+      </c>
+      <c r="L88">
+        <v>0.9183436250378347</v>
+      </c>
+      <c r="M88">
+        <v>-3.980730681129836</v>
+      </c>
+      <c r="N88">
+        <v>6.87037550554556E-05</v>
+      </c>
+      <c r="O88">
+        <v>0.2630153477156314</v>
+      </c>
+      <c r="P88">
+        <v>4.163019525599889</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89">
+        <v>150562302</v>
+      </c>
+      <c r="D89">
+        <v>150562304</v>
+      </c>
+      <c r="E89" t="s">
+        <v>221</v>
+      </c>
+      <c r="F89" t="s">
+        <v>249</v>
+      </c>
+      <c r="G89" t="s">
+        <v>256</v>
+      </c>
+      <c r="H89">
+        <v>0.1937386830284375</v>
+      </c>
+      <c r="I89">
+        <v>0.04881842640009769</v>
+      </c>
+      <c r="J89">
+        <v>1.213779060442004</v>
+      </c>
+      <c r="K89">
+        <v>1.103024911791068</v>
+      </c>
+      <c r="L89">
+        <v>1.335653974646163</v>
+      </c>
+      <c r="M89">
+        <v>3.96855649218652</v>
+      </c>
+      <c r="N89">
+        <v>7.230931663563139E-05</v>
+      </c>
+      <c r="O89">
+        <v>0.2644095675397582</v>
+      </c>
+      <c r="P89">
+        <v>4.140805742777792</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B90" t="s">
+        <v>133</v>
+      </c>
+      <c r="C90">
+        <v>12475057</v>
+      </c>
+      <c r="D90">
+        <v>12475059</v>
+      </c>
+      <c r="E90" t="s">
+        <v>222</v>
+      </c>
+      <c r="F90" t="s">
+        <v>240</v>
+      </c>
+      <c r="G90" t="s">
+        <v>150</v>
+      </c>
+      <c r="H90">
+        <v>-0.2535929761939527</v>
+      </c>
+      <c r="I90">
+        <v>0.06393726895349797</v>
+      </c>
+      <c r="J90">
+        <v>0.7760075913385848</v>
+      </c>
+      <c r="K90">
+        <v>0.6846087850307303</v>
+      </c>
+      <c r="L90">
+        <v>0.8796086100298602</v>
+      </c>
+      <c r="M90">
+        <v>-3.966277889948547</v>
+      </c>
+      <c r="N90">
+        <v>7.300374222355545E-05</v>
+      </c>
+      <c r="O90">
+        <v>0.2644095675397582</v>
+      </c>
+      <c r="P90">
+        <v>4.13665487706606</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B91" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91">
         <v>33430744</v>
       </c>
-      <c r="D56">
+      <c r="D91">
         <v>33430746</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E91" t="s">
+        <v>223</v>
+      </c>
+      <c r="F91" t="s">
+        <v>240</v>
+      </c>
+      <c r="G91" t="s">
+        <v>254</v>
+      </c>
+      <c r="H91">
+        <v>0.3895085917016474</v>
+      </c>
+      <c r="I91">
+        <v>0.0982914452469912</v>
+      </c>
+      <c r="J91">
+        <v>1.476255171567037</v>
+      </c>
+      <c r="K91">
+        <v>1.217574663108172</v>
+      </c>
+      <c r="L91">
+        <v>1.789893792644408</v>
+      </c>
+      <c r="M91">
+        <v>3.962792394830217</v>
+      </c>
+      <c r="N91">
+        <v>7.407819558795943E-05</v>
+      </c>
+      <c r="O91">
+        <v>0.2644095675397582</v>
+      </c>
+      <c r="P91">
+        <v>4.130309604832282</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" t="s">
+        <v>135</v>
+      </c>
+      <c r="C92">
+        <v>163347378</v>
+      </c>
+      <c r="D92">
+        <v>163347380</v>
+      </c>
+      <c r="E92" t="s">
+        <v>150</v>
+      </c>
+      <c r="F92" t="s">
+        <v>150</v>
+      </c>
+      <c r="G92" t="s">
+        <v>150</v>
+      </c>
+      <c r="H92">
+        <v>-0.1050294156222763</v>
+      </c>
+      <c r="I92">
+        <v>0.02651110020677009</v>
+      </c>
+      <c r="J92">
+        <v>0.9002980393696952</v>
+      </c>
+      <c r="K92">
+        <v>0.8547124202419992</v>
+      </c>
+      <c r="L92">
+        <v>0.9483149425433947</v>
+      </c>
+      <c r="M92">
+        <v>-3.961714708296231</v>
+      </c>
+      <c r="N92">
+        <v>7.441342327327469E-05</v>
+      </c>
+      <c r="O92">
+        <v>0.2644095675397582</v>
+      </c>
+      <c r="P92">
+        <v>4.128348715963779</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B93" t="s">
+        <v>138</v>
+      </c>
+      <c r="C93">
+        <v>116089464</v>
+      </c>
+      <c r="D93">
+        <v>116089466</v>
+      </c>
+      <c r="E93" t="s">
+        <v>224</v>
+      </c>
+      <c r="F93" t="s">
+        <v>241</v>
+      </c>
+      <c r="G93" t="s">
+        <v>150</v>
+      </c>
+      <c r="H93">
+        <v>-0.1122396684053698</v>
+      </c>
+      <c r="I93">
+        <v>0.02834113698656287</v>
+      </c>
+      <c r="J93">
+        <v>0.8938300090141542</v>
+      </c>
+      <c r="K93">
+        <v>0.8455336807097561</v>
+      </c>
+      <c r="L93">
+        <v>0.9448849918593487</v>
+      </c>
+      <c r="M93">
+        <v>-3.960309300878965</v>
+      </c>
+      <c r="N93">
+        <v>7.485274833626652E-05</v>
+      </c>
+      <c r="O93">
+        <v>0.2644095675397582</v>
+      </c>
+      <c r="P93">
+        <v>4.125792249223902</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94">
+        <v>11766014</v>
+      </c>
+      <c r="D94">
+        <v>11766016</v>
+      </c>
+      <c r="E94" t="s">
+        <v>150</v>
+      </c>
+      <c r="F94" t="s">
+        <v>150</v>
+      </c>
+      <c r="G94" t="s">
+        <v>252</v>
+      </c>
+      <c r="H94">
+        <v>-0.2306112443309306</v>
+      </c>
+      <c r="I94">
+        <v>0.0582325148207399</v>
+      </c>
+      <c r="J94">
+        <v>0.794048096739509</v>
+      </c>
+      <c r="K94">
+        <v>0.708401060450575</v>
+      </c>
+      <c r="L94">
+        <v>0.8900500227012681</v>
+      </c>
+      <c r="M94">
+        <v>-3.960180065051851</v>
+      </c>
+      <c r="N94">
+        <v>7.489326988153642E-05</v>
+      </c>
+      <c r="O94">
+        <v>0.2644095675397582</v>
+      </c>
+      <c r="P94">
+        <v>4.125557207462553</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" t="s">
+        <v>130</v>
+      </c>
+      <c r="C95">
+        <v>156002132</v>
+      </c>
+      <c r="D95">
+        <v>156002134</v>
+      </c>
+      <c r="E95" t="s">
+        <v>150</v>
+      </c>
+      <c r="F95" t="s">
+        <v>150</v>
+      </c>
+      <c r="G95" t="s">
+        <v>150</v>
+      </c>
+      <c r="H95">
+        <v>-0.1550774225613336</v>
+      </c>
+      <c r="I95">
+        <v>0.03916047530513424</v>
+      </c>
+      <c r="J95">
+        <v>0.8563488741937262</v>
+      </c>
+      <c r="K95">
+        <v>0.7930805043474176</v>
+      </c>
+      <c r="L95">
+        <v>0.9246645079698209</v>
+      </c>
+      <c r="M95">
+        <v>-3.960049548760246</v>
+      </c>
+      <c r="N95">
+        <v>7.493421396646522E-05</v>
+      </c>
+      <c r="O95">
+        <v>0.2644095675397582</v>
+      </c>
+      <c r="P95">
+        <v>4.125319843927677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B96" t="s">
+        <v>128</v>
+      </c>
+      <c r="C96">
+        <v>65057810</v>
+      </c>
+      <c r="D96">
+        <v>65057812</v>
+      </c>
+      <c r="E96" t="s">
+        <v>213</v>
+      </c>
+      <c r="F96" t="s">
+        <v>240</v>
+      </c>
+      <c r="G96" t="s">
+        <v>256</v>
+      </c>
+      <c r="H96">
+        <v>-0.2004763789903048</v>
+      </c>
+      <c r="I96">
+        <v>0.05064441350826346</v>
+      </c>
+      <c r="J96">
+        <v>0.8183408198338757</v>
+      </c>
+      <c r="K96">
+        <v>0.7410126328249169</v>
+      </c>
+      <c r="L96">
+        <v>0.903738570357962</v>
+      </c>
+      <c r="M96">
+        <v>-3.958509243227664</v>
+      </c>
+      <c r="N96">
+        <v>7.541902286171486E-05</v>
+      </c>
+      <c r="O96">
+        <v>0.2644095675397582</v>
+      </c>
+      <c r="P96">
+        <v>4.122519098667529</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B97" t="s">
+        <v>128</v>
+      </c>
+      <c r="C97">
+        <v>17809294</v>
+      </c>
+      <c r="D97">
+        <v>17809296</v>
+      </c>
+      <c r="E97" t="s">
+        <v>225</v>
+      </c>
+      <c r="F97" t="s">
+        <v>240</v>
+      </c>
+      <c r="G97" t="s">
+        <v>253</v>
+      </c>
+      <c r="H97">
+        <v>0.157074085352691</v>
+      </c>
+      <c r="I97">
+        <v>0.03973689470214294</v>
+      </c>
+      <c r="J97">
+        <v>1.170082296649538</v>
+      </c>
+      <c r="K97">
+        <v>1.08241126243556</v>
+      </c>
+      <c r="L97">
+        <v>1.264854338130248</v>
+      </c>
+      <c r="M97">
+        <v>3.95285254497303</v>
+      </c>
+      <c r="N97">
+        <v>7.722502955625784E-05</v>
+      </c>
+      <c r="O97">
+        <v>0.2664381827608005</v>
+      </c>
+      <c r="P97">
+        <v>4.11224191680939</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B98" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98">
+        <v>7439785</v>
+      </c>
+      <c r="D98">
+        <v>7439787</v>
+      </c>
+      <c r="E98" t="s">
+        <v>226</v>
+      </c>
+      <c r="F98" t="s">
+        <v>250</v>
+      </c>
+      <c r="G98" t="s">
+        <v>255</v>
+      </c>
+      <c r="H98">
+        <v>0.1284849794932616</v>
+      </c>
+      <c r="I98">
+        <v>0.03253851049500705</v>
+      </c>
+      <c r="J98">
+        <v>1.13710434127952</v>
+      </c>
+      <c r="K98">
+        <v>1.066850308793071</v>
+      </c>
+      <c r="L98">
+        <v>1.211984729534841</v>
+      </c>
+      <c r="M98">
+        <v>3.948705012572019</v>
+      </c>
+      <c r="N98">
+        <v>7.857510634705441E-05</v>
+      </c>
+      <c r="O98">
+        <v>0.2664381827608005</v>
+      </c>
+      <c r="P98">
+        <v>4.104715022516458</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99">
+        <v>32390316</v>
+      </c>
+      <c r="D99">
+        <v>32390318</v>
+      </c>
+      <c r="E99" t="s">
+        <v>227</v>
+      </c>
+      <c r="F99" t="s">
+        <v>240</v>
+      </c>
+      <c r="G99" t="s">
+        <v>150</v>
+      </c>
+      <c r="H99">
+        <v>-0.1138236521582122</v>
+      </c>
+      <c r="I99">
+        <v>0.02883109677376803</v>
+      </c>
+      <c r="J99">
+        <v>0.8924153175220311</v>
+      </c>
+      <c r="K99">
+        <v>0.8433851345313651</v>
+      </c>
+      <c r="L99">
+        <v>0.9442958695145577</v>
+      </c>
+      <c r="M99">
+        <v>-3.947947351825154</v>
+      </c>
+      <c r="N99">
+        <v>7.882413306127377E-05</v>
+      </c>
+      <c r="O99">
+        <v>0.2664381827608005</v>
+      </c>
+      <c r="P99">
+        <v>4.103340797094811</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B100" t="s">
+        <v>136</v>
+      </c>
+      <c r="C100">
+        <v>16183799</v>
+      </c>
+      <c r="D100">
+        <v>16183801</v>
+      </c>
+      <c r="E100" t="s">
+        <v>228</v>
+      </c>
+      <c r="F100" t="s">
+        <v>240</v>
+      </c>
+      <c r="G100" t="s">
+        <v>150</v>
+      </c>
+      <c r="H100">
+        <v>-0.2437891111604141</v>
+      </c>
+      <c r="I100">
+        <v>0.0617685611827573</v>
+      </c>
+      <c r="J100">
+        <v>0.7836528804845617</v>
+      </c>
+      <c r="K100">
+        <v>0.6942985202868049</v>
+      </c>
+      <c r="L100">
+        <v>0.8845069075447112</v>
+      </c>
+      <c r="M100">
+        <v>-3.946815442877239</v>
+      </c>
+      <c r="N100">
+        <v>7.91975574624217E-05</v>
+      </c>
+      <c r="O100">
+        <v>0.2664381827608005</v>
+      </c>
+      <c r="P100">
+        <v>4.101288212311387</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" t="s">
+        <v>132</v>
+      </c>
+      <c r="C101">
+        <v>206218878</v>
+      </c>
+      <c r="D101">
+        <v>206218880</v>
+      </c>
+      <c r="E101" t="s">
+        <v>229</v>
+      </c>
+      <c r="F101" t="s">
+        <v>251</v>
+      </c>
+      <c r="G101" t="s">
+        <v>150</v>
+      </c>
+      <c r="H101">
+        <v>-0.1608021659793563</v>
+      </c>
+      <c r="I101">
+        <v>0.0408432568145156</v>
+      </c>
+      <c r="J101">
+        <v>0.8514605023004812</v>
+      </c>
+      <c r="K101">
+        <v>0.7859567776382101</v>
+      </c>
+      <c r="L101">
+        <v>0.9224234812967174</v>
+      </c>
+      <c r="M101">
+        <v>-3.937055428993301</v>
+      </c>
+      <c r="N101">
+        <v>8.24875587747247E-05</v>
+      </c>
+      <c r="O101">
+        <v>0.2747314135039226</v>
+      </c>
+      <c r="P101">
+        <v>4.083611549182577</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
+      <c r="A102" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B102" t="s">
         <v>134</v>
       </c>
-      <c r="F56" t="s">
-        <v>135</v>
-      </c>
-      <c r="G56" t="s">
-        <v>146</v>
-      </c>
-      <c r="H56">
-        <v>0.4366670890284741</v>
-      </c>
-      <c r="I56">
-        <v>0.09877887052816198</v>
-      </c>
-      <c r="J56">
-        <v>1.547540797979539</v>
-      </c>
-      <c r="K56">
-        <v>1.275150308089527</v>
-      </c>
-      <c r="L56">
-        <v>1.878117823615037</v>
-      </c>
-      <c r="M56">
-        <v>4.420652784281227</v>
-      </c>
-      <c r="N56">
-        <v>9.840318127482818E-06</v>
-      </c>
-      <c r="O56">
-        <v>0.05964145251117318</v>
-      </c>
-      <c r="P56">
-        <v>5.00699086104254</v>
+      <c r="C102">
+        <v>67438836</v>
+      </c>
+      <c r="D102">
+        <v>67438838</v>
+      </c>
+      <c r="E102" t="s">
+        <v>230</v>
+      </c>
+      <c r="F102" t="s">
+        <v>240</v>
+      </c>
+      <c r="G102" t="s">
+        <v>254</v>
+      </c>
+      <c r="H102">
+        <v>0.1032718310521878</v>
+      </c>
+      <c r="I102">
+        <v>0.02629095352979707</v>
+      </c>
+      <c r="J102">
+        <v>1.108792772420179</v>
+      </c>
+      <c r="K102">
+        <v>1.053104542672652</v>
+      </c>
+      <c r="L102">
+        <v>1.167425799010519</v>
+      </c>
+      <c r="M102">
+        <v>3.928036726973169</v>
+      </c>
+      <c r="N102">
+        <v>8.564213460605484E-05</v>
+      </c>
+      <c r="O102">
+        <v>0.2773762946855279</v>
+      </c>
+      <c r="P102">
+        <v>4.067312516575202</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
+      <c r="A103" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103">
+        <v>3480597</v>
+      </c>
+      <c r="D103">
+        <v>3480599</v>
+      </c>
+      <c r="E103" t="s">
+        <v>231</v>
+      </c>
+      <c r="F103" t="s">
+        <v>240</v>
+      </c>
+      <c r="G103" t="s">
+        <v>253</v>
+      </c>
+      <c r="H103">
+        <v>0.1213462417846451</v>
+      </c>
+      <c r="I103">
+        <v>0.03093384041040239</v>
+      </c>
+      <c r="J103">
+        <v>1.129015757130686</v>
+      </c>
+      <c r="K103">
+        <v>1.06259818682558</v>
+      </c>
+      <c r="L103">
+        <v>1.199584749581931</v>
+      </c>
+      <c r="M103">
+        <v>3.922766787916801</v>
+      </c>
+      <c r="N103">
+        <v>8.753787584908664E-05</v>
+      </c>
+      <c r="O103">
+        <v>0.2773762946855279</v>
+      </c>
+      <c r="P103">
+        <v>4.05780399597071</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
+      <c r="A104" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B104" t="s">
+        <v>140</v>
+      </c>
+      <c r="C104">
+        <v>113171639</v>
+      </c>
+      <c r="D104">
+        <v>113171641</v>
+      </c>
+      <c r="E104" t="s">
+        <v>232</v>
+      </c>
+      <c r="F104" t="s">
+        <v>240</v>
+      </c>
+      <c r="G104" t="s">
+        <v>150</v>
+      </c>
+      <c r="H104">
+        <v>0.1407317151749726</v>
+      </c>
+      <c r="I104">
+        <v>0.0358892302935055</v>
+      </c>
+      <c r="J104">
+        <v>1.151115779658722</v>
+      </c>
+      <c r="K104">
+        <v>1.072926665872833</v>
+      </c>
+      <c r="L104">
+        <v>1.235002894723803</v>
+      </c>
+      <c r="M104">
+        <v>3.921279838660663</v>
+      </c>
+      <c r="N104">
+        <v>8.807990166828922E-05</v>
+      </c>
+      <c r="O104">
+        <v>0.2773762946855279</v>
+      </c>
+      <c r="P104">
+        <v>4.055123178878985</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
+      <c r="A105" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>128</v>
+      </c>
+      <c r="C105">
+        <v>77456017</v>
+      </c>
+      <c r="D105">
+        <v>77456019</v>
+      </c>
+      <c r="E105" t="s">
+        <v>233</v>
+      </c>
+      <c r="F105" t="s">
+        <v>240</v>
+      </c>
+      <c r="G105" t="s">
+        <v>150</v>
+      </c>
+      <c r="H105">
+        <v>0.2159023232100358</v>
+      </c>
+      <c r="I105">
+        <v>0.05506016974781985</v>
+      </c>
+      <c r="J105">
+        <v>1.240981158024608</v>
+      </c>
+      <c r="K105">
+        <v>1.114032564942409</v>
+      </c>
+      <c r="L105">
+        <v>1.382396065461256</v>
+      </c>
+      <c r="M105">
+        <v>3.921207003154665</v>
+      </c>
+      <c r="N105">
+        <v>8.810653310908445E-05</v>
+      </c>
+      <c r="O105">
+        <v>0.2773762946855279</v>
+      </c>
+      <c r="P105">
+        <v>4.054991887410544</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
+      <c r="A106" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B106" t="s">
+        <v>133</v>
+      </c>
+      <c r="C106">
+        <v>50333271</v>
+      </c>
+      <c r="D106">
+        <v>50333273</v>
+      </c>
+      <c r="E106" t="s">
+        <v>150</v>
+      </c>
+      <c r="F106" t="s">
+        <v>150</v>
+      </c>
+      <c r="G106" t="s">
+        <v>255</v>
+      </c>
+      <c r="H106">
+        <v>0.1129661578912215</v>
+      </c>
+      <c r="I106">
+        <v>0.02881128373643585</v>
+      </c>
+      <c r="J106">
+        <v>1.119594042884063</v>
+      </c>
+      <c r="K106">
+        <v>1.058123524460721</v>
+      </c>
+      <c r="L106">
+        <v>1.184635623237212</v>
+      </c>
+      <c r="M106">
+        <v>3.920899843430445</v>
+      </c>
+      <c r="N106">
+        <v>8.821892613576331E-05</v>
+      </c>
+      <c r="O106">
+        <v>0.2773762946855279</v>
+      </c>
+      <c r="P106">
+        <v>4.054438233070316</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
+      <c r="A107" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B107" t="s">
+        <v>134</v>
+      </c>
+      <c r="C107">
+        <v>582010</v>
+      </c>
+      <c r="D107">
+        <v>582012</v>
+      </c>
+      <c r="E107" t="s">
+        <v>234</v>
+      </c>
+      <c r="F107" t="s">
+        <v>240</v>
+      </c>
+      <c r="G107" t="s">
+        <v>150</v>
+      </c>
+      <c r="H107">
+        <v>0.2044851096810692</v>
+      </c>
+      <c r="I107">
+        <v>0.05219223638898431</v>
+      </c>
+      <c r="J107">
+        <v>1.226893186878897</v>
+      </c>
+      <c r="K107">
+        <v>1.107594122836784</v>
+      </c>
+      <c r="L107">
+        <v>1.359041963995393</v>
+      </c>
+      <c r="M107">
+        <v>3.917921971326521</v>
+      </c>
+      <c r="N107">
+        <v>8.931560597639677E-05</v>
+      </c>
+      <c r="O107">
+        <v>0.2773762946855279</v>
+      </c>
+      <c r="P107">
+        <v>4.049072650884348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
+      <c r="A108" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" t="s">
+        <v>127</v>
+      </c>
+      <c r="C108">
+        <v>23182669</v>
+      </c>
+      <c r="D108">
+        <v>23182671</v>
+      </c>
+      <c r="E108" t="s">
+        <v>235</v>
+      </c>
+      <c r="F108" t="s">
+        <v>240</v>
+      </c>
+      <c r="G108" t="s">
+        <v>255</v>
+      </c>
+      <c r="H108">
+        <v>0.1892181922551486</v>
+      </c>
+      <c r="I108">
+        <v>0.04832886381185967</v>
+      </c>
+      <c r="J108">
+        <v>1.20830456642085</v>
+      </c>
+      <c r="K108">
+        <v>1.099104063025689</v>
+      </c>
+      <c r="L108">
+        <v>1.328354588385643</v>
+      </c>
+      <c r="M108">
+        <v>3.915221201801052</v>
+      </c>
+      <c r="N108">
+        <v>9.032136100324526E-05</v>
+      </c>
+      <c r="O108">
+        <v>0.2773762946855279</v>
+      </c>
+      <c r="P108">
+        <v>4.044209526887496</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
+      <c r="A109" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109">
+        <v>46882240</v>
+      </c>
+      <c r="D109">
+        <v>46882242</v>
+      </c>
+      <c r="E109" t="s">
+        <v>150</v>
+      </c>
+      <c r="F109" t="s">
+        <v>150</v>
+      </c>
+      <c r="G109" t="s">
+        <v>150</v>
+      </c>
+      <c r="H109">
+        <v>-0.1461661977801778</v>
+      </c>
+      <c r="I109">
+        <v>0.03733528840155333</v>
+      </c>
+      <c r="J109">
+        <v>0.8640140940267421</v>
+      </c>
+      <c r="K109">
+        <v>0.8030470143247487</v>
+      </c>
+      <c r="L109">
+        <v>0.9296097754682173</v>
+      </c>
+      <c r="M109">
+        <v>-3.91496099368812</v>
+      </c>
+      <c r="N109">
+        <v>9.041882436788742E-05</v>
+      </c>
+      <c r="O109">
+        <v>0.2773762946855279</v>
+      </c>
+      <c r="P109">
+        <v>4.043741143993369</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
+      <c r="A110" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B110" t="s">
+        <v>134</v>
+      </c>
+      <c r="C110">
+        <v>124898657</v>
+      </c>
+      <c r="D110">
+        <v>124898659</v>
+      </c>
+      <c r="E110" t="s">
+        <v>236</v>
+      </c>
+      <c r="F110" t="s">
+        <v>240</v>
+      </c>
+      <c r="G110" t="s">
+        <v>150</v>
+      </c>
+      <c r="H110">
+        <v>-0.1448809802196629</v>
+      </c>
+      <c r="I110">
+        <v>0.03701602551901841</v>
+      </c>
+      <c r="J110">
+        <v>0.8651252540011238</v>
+      </c>
+      <c r="K110">
+        <v>0.8045830733079471</v>
+      </c>
+      <c r="L110">
+        <v>0.9302230309586063</v>
+      </c>
+      <c r="M110">
+        <v>-3.914006925060733</v>
+      </c>
+      <c r="N110">
+        <v>9.077703018910382E-05</v>
+      </c>
+      <c r="O110">
+        <v>0.2773762946855279</v>
+      </c>
+      <c r="P110">
+        <v>4.042024029497797</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
+      <c r="A111" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" t="s">
+        <v>128</v>
+      </c>
+      <c r="C111">
+        <v>17213452</v>
+      </c>
+      <c r="D111">
+        <v>17213454</v>
+      </c>
+      <c r="E111" t="s">
+        <v>237</v>
+      </c>
+      <c r="F111" t="s">
+        <v>240</v>
+      </c>
+      <c r="G111" t="s">
+        <v>150</v>
+      </c>
+      <c r="H111">
+        <v>-0.2807877659112244</v>
+      </c>
+      <c r="I111">
+        <v>0.07185299064582792</v>
+      </c>
+      <c r="J111">
+        <v>0.7551885952366786</v>
+      </c>
+      <c r="K111">
+        <v>0.6559852075501403</v>
+      </c>
+      <c r="L111">
+        <v>0.8693943214138043</v>
+      </c>
+      <c r="M111">
+        <v>-3.907809033242071</v>
+      </c>
+      <c r="N111">
+        <v>9.313687391983054E-05</v>
+      </c>
+      <c r="O111">
+        <v>0.2819998268544629</v>
+      </c>
+      <c r="P111">
+        <v>4.030878342977815</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
+      <c r="A112" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B112" t="s">
+        <v>130</v>
+      </c>
+      <c r="C112">
+        <v>44398616</v>
+      </c>
+      <c r="D112">
+        <v>44398618</v>
+      </c>
+      <c r="E112" t="s">
+        <v>238</v>
+      </c>
+      <c r="F112" t="s">
+        <v>240</v>
+      </c>
+      <c r="G112" t="s">
+        <v>150</v>
+      </c>
+      <c r="H112">
+        <v>-0.1009861787306608</v>
+      </c>
+      <c r="I112">
+        <v>0.02586142359357102</v>
+      </c>
+      <c r="J112">
+        <v>0.9039455264741146</v>
+      </c>
+      <c r="K112">
+        <v>0.8592686680012314</v>
+      </c>
+      <c r="L112">
+        <v>0.950945315780318</v>
+      </c>
+      <c r="M112">
+        <v>-3.90489635519389</v>
+      </c>
+      <c r="N112">
+        <v>9.426577676834461E-05</v>
+      </c>
+      <c r="O112">
+        <v>0.2826118892811527</v>
+      </c>
+      <c r="P112">
+        <v>4.025645949450759</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
+      <c r="A113" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B113" t="s">
+        <v>128</v>
+      </c>
+      <c r="C113">
+        <v>58358093</v>
+      </c>
+      <c r="D113">
+        <v>58358095</v>
+      </c>
+      <c r="E113" t="s">
+        <v>239</v>
+      </c>
+      <c r="F113" t="s">
+        <v>246</v>
+      </c>
+      <c r="G113" t="s">
+        <v>150</v>
+      </c>
+      <c r="H113">
+        <v>-0.3782602019368685</v>
+      </c>
+      <c r="I113">
+        <v>0.09691704027748151</v>
+      </c>
+      <c r="J113">
+        <v>0.6850522255571657</v>
+      </c>
+      <c r="K113">
+        <v>0.5665363070976286</v>
+      </c>
+      <c r="L113">
+        <v>0.828360946794455</v>
+      </c>
+      <c r="M113">
+        <v>-3.902927708624596</v>
+      </c>
+      <c r="N113">
+        <v>9.503609461261733E-05</v>
+      </c>
+      <c r="O113">
+        <v>0.2826118892811527</v>
+      </c>
+      <c r="P113">
+        <v>4.022111418775327</v>
       </c>
     </row>
   </sheetData>

--- a/data/ewas_cpgs_top_EFS.xlsx
+++ b/data/ewas_cpgs_top_EFS.xlsx
@@ -493,7 +493,7 @@
     <t>ZMIZ1-AS1</t>
   </si>
   <si>
-    <t>PCDHGA12;PCDHGB1;PCDHGA5;PCDHGB2;PCDHGA8;PCDHGB3;PCDHGA1;PCDHGB6;PCDHGA6;PCDHGB5;PCDHGA9;PCDHGA2;PCDHGB7;PCDHGA10;PCDHGA11;PCDHGA7;PCDHGA4;PCDHGA3;PCDHGB4</t>
+    <t>PCDHGA10;PCDHGA9;PCDHGA4;PCDHGA3;PCDHGA8;PCDHGB5;PCDHGA12;PCDHGA2;PCDHGB6;PCDHGB4;PCDHGB7;PCDHGB3;PCDHGA11;PCDHGA5;PCDHGB1;PCDHGB2;PCDHGA7;PCDHGA6;PCDHGA1</t>
   </si>
   <si>
     <t>MAP2</t>
@@ -505,7 +505,7 @@
     <t>C1orf228</t>
   </si>
   <si>
-    <t>RP11-180D21.3;RP11-550P17.5</t>
+    <t>RP11-550P17.5;RP11-180D21.3</t>
   </si>
   <si>
     <t>TECPR1</t>
@@ -547,7 +547,7 @@
     <t>CYB561D1</t>
   </si>
   <si>
-    <t>PMM2;RP11-77H9.2;RP11-152P23.2</t>
+    <t>PMM2;RP11-152P23.2;RP11-77H9.2</t>
   </si>
   <si>
     <t>NLRP3</t>
@@ -583,13 +583,13 @@
     <t>TEX41</t>
   </si>
   <si>
-    <t>GSN;GSN-AS1</t>
+    <t>GSN-AS1;GSN</t>
   </si>
   <si>
     <t>MED13L</t>
   </si>
   <si>
-    <t>RP11-1021N1.1;C16orf45</t>
+    <t>C16orf45;RP11-1021N1.1</t>
   </si>
   <si>
     <t>SSH1</t>
@@ -643,7 +643,7 @@
     <t>GRXCR2</t>
   </si>
   <si>
-    <t>AC008753.6;MYADM</t>
+    <t>MYADM;AC008753.6</t>
   </si>
   <si>
     <t>TOM1L2</t>
@@ -652,7 +652,7 @@
     <t>SERINC5</t>
   </si>
   <si>
-    <t>H1FX;H1FX-AS1</t>
+    <t>H1FX-AS1;H1FX</t>
   </si>
   <si>
     <t>GNA13</t>
@@ -694,7 +694,7 @@
     <t>RAI1</t>
   </si>
   <si>
-    <t>RP11-104H15.10;FGF11;RP11-104H15.7;RP11-104H15.8</t>
+    <t>FGF11;RP11-104H15.10;RP11-104H15.7;RP11-104H15.8</t>
   </si>
   <si>
     <t>BRCA2</t>
@@ -703,7 +703,7 @@
     <t>GALNT15</t>
   </si>
   <si>
-    <t>GPR1-AS;GPR1</t>
+    <t>GPR1;GPR1-AS</t>
   </si>
   <si>
     <t>PTPRCAP;CORO1B</t>
@@ -733,7 +733,7 @@
     <t>NUDCD3</t>
   </si>
   <si>
-    <t>RNF43;BZRAP1-AS1</t>
+    <t>BZRAP1-AS1;RNF43</t>
   </si>
   <si>
     <t>protein_coding</t>
@@ -748,28 +748,28 @@
     <t>antisense</t>
   </si>
   <si>
-    <t>antisense;lincRNA</t>
+    <t>lincRNA;antisense</t>
   </si>
   <si>
     <t>lincRNA;protein_coding</t>
   </si>
   <si>
-    <t>antisense;protein_coding</t>
+    <t>protein_coding;antisense</t>
   </si>
   <si>
     <t>miRNA;transcribed_unprocessed_pseudogene</t>
   </si>
   <si>
-    <t>miRNA;protein_coding</t>
+    <t>protein_coding;miRNA</t>
   </si>
   <si>
     <t>processed_transcript</t>
   </si>
   <si>
-    <t>antisense;processed_transcript;protein_coding</t>
-  </si>
-  <si>
-    <t>processed_transcript;protein_coding</t>
+    <t>protein_coding;antisense;processed_transcript</t>
+  </si>
+  <si>
+    <t>protein_coding;processed_transcript</t>
   </si>
   <si>
     <t>N_Shelf</t>

--- a/data/ewas_cpgs_top_EFS.xlsx
+++ b/data/ewas_cpgs_top_EFS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="258">
   <si>
     <t>chrm</t>
   </si>
@@ -493,7 +493,7 @@
     <t>ZMIZ1-AS1</t>
   </si>
   <si>
-    <t>PCDHGA10;PCDHGA9;PCDHGA4;PCDHGA3;PCDHGA8;PCDHGB5;PCDHGA12;PCDHGA2;PCDHGB6;PCDHGB4;PCDHGB7;PCDHGB3;PCDHGA11;PCDHGA5;PCDHGB1;PCDHGB2;PCDHGA7;PCDHGA6;PCDHGA1</t>
+    <t>PCDHGB7;PCDHGA7;PCDHGA10;PCDHGA9;PCDHGA11;PCDHGB2;PCDHGA1;PCDHGB6;PCDHGA12;PCDHGA2;PCDHGA6;PCDHGB4;PCDHGA3;PCDHGA4;PCDHGB1;PCDHGA8;PCDHGA5;PCDHGB5;PCDHGB3</t>
   </si>
   <si>
     <t>MAP2</t>
@@ -505,13 +505,13 @@
     <t>C1orf228</t>
   </si>
   <si>
-    <t>RP11-550P17.5;RP11-180D21.3</t>
+    <t>RP11-180D21.3;RP11-550P17.5</t>
   </si>
   <si>
     <t>TECPR1</t>
   </si>
   <si>
-    <t>RP5-1052I5.2;LINC01140</t>
+    <t>LINC01140;RP5-1052I5.2</t>
   </si>
   <si>
     <t>STK24</t>
@@ -547,7 +547,7 @@
     <t>CYB561D1</t>
   </si>
   <si>
-    <t>PMM2;RP11-152P23.2;RP11-77H9.2</t>
+    <t>RP11-77H9.2;RP11-152P23.2;PMM2</t>
   </si>
   <si>
     <t>NLRP3</t>
@@ -589,7 +589,7 @@
     <t>MED13L</t>
   </si>
   <si>
-    <t>C16orf45;RP11-1021N1.1</t>
+    <t>RP11-1021N1.1;C16orf45</t>
   </si>
   <si>
     <t>SSH1</t>
@@ -643,7 +643,7 @@
     <t>GRXCR2</t>
   </si>
   <si>
-    <t>MYADM;AC008753.6</t>
+    <t>AC008753.6;MYADM</t>
   </si>
   <si>
     <t>TOM1L2</t>
@@ -652,7 +652,7 @@
     <t>SERINC5</t>
   </si>
   <si>
-    <t>H1FX-AS1;H1FX</t>
+    <t>H1FX;H1FX-AS1</t>
   </si>
   <si>
     <t>GNA13</t>
@@ -694,7 +694,7 @@
     <t>RAI1</t>
   </si>
   <si>
-    <t>FGF11;RP11-104H15.10;RP11-104H15.7;RP11-104H15.8</t>
+    <t>RP11-104H15.8;FGF11;RP11-104H15.10;RP11-104H15.7</t>
   </si>
   <si>
     <t>BRCA2</t>
@@ -703,7 +703,7 @@
     <t>GALNT15</t>
   </si>
   <si>
-    <t>GPR1;GPR1-AS</t>
+    <t>GPR1-AS;GPR1</t>
   </si>
   <si>
     <t>PTPRCAP;CORO1B</t>
@@ -727,13 +727,13 @@
     <t>ROBO4</t>
   </si>
   <si>
-    <t>RP11-45M22.4;MPRIP;FLCN</t>
+    <t>MPRIP;RP11-45M22.4;FLCN</t>
   </si>
   <si>
     <t>NUDCD3</t>
   </si>
   <si>
-    <t>BZRAP1-AS1;RNF43</t>
+    <t>RNF43;BZRAP1-AS1</t>
   </si>
   <si>
     <t>protein_coding</t>
@@ -748,10 +748,10 @@
     <t>antisense</t>
   </si>
   <si>
-    <t>lincRNA;antisense</t>
-  </si>
-  <si>
-    <t>lincRNA;protein_coding</t>
+    <t>antisense;lincRNA</t>
+  </si>
+  <si>
+    <t>protein_coding;lincRNA</t>
   </si>
   <si>
     <t>protein_coding;antisense</t>
@@ -761,6 +761,9 @@
   </si>
   <si>
     <t>protein_coding;miRNA</t>
+  </si>
+  <si>
+    <t>antisense;protein_coding</t>
   </si>
   <si>
     <t>processed_transcript</t>
@@ -1315,7 +1318,7 @@
         <v>150</v>
       </c>
       <c r="G4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H4">
         <v>-0.3008187042465721</v>
@@ -1415,7 +1418,7 @@
         <v>240</v>
       </c>
       <c r="G6" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H6">
         <v>-0.3915791844604438</v>
@@ -1515,7 +1518,7 @@
         <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H8">
         <v>-0.2342269749954867</v>
@@ -1615,7 +1618,7 @@
         <v>240</v>
       </c>
       <c r="G10" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H10">
         <v>-0.1492697773167078</v>
@@ -1715,7 +1718,7 @@
         <v>243</v>
       </c>
       <c r="G12" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H12">
         <v>-0.2375756143002867</v>
@@ -1815,7 +1818,7 @@
         <v>240</v>
       </c>
       <c r="G14" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H14">
         <v>-0.3168894735725721</v>
@@ -1965,7 +1968,7 @@
         <v>240</v>
       </c>
       <c r="G17" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H17">
         <v>1.412137953175473</v>
@@ -2015,7 +2018,7 @@
         <v>240</v>
       </c>
       <c r="G18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H18">
         <v>-0.1634486441049782</v>
@@ -2165,7 +2168,7 @@
         <v>245</v>
       </c>
       <c r="G21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H21">
         <v>-0.1468581147905268</v>
@@ -2215,7 +2218,7 @@
         <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H22">
         <v>-0.2254784522288338</v>
@@ -2465,7 +2468,7 @@
         <v>240</v>
       </c>
       <c r="G27" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H27">
         <v>-0.1949685263718639</v>
@@ -2565,7 +2568,7 @@
         <v>240</v>
       </c>
       <c r="G29" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H29">
         <v>-0.242658403462908</v>
@@ -2615,7 +2618,7 @@
         <v>240</v>
       </c>
       <c r="G30" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H30">
         <v>-0.2204358163601196</v>
@@ -2665,7 +2668,7 @@
         <v>150</v>
       </c>
       <c r="G31" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H31">
         <v>0.09458018232985194</v>
@@ -2815,7 +2818,7 @@
         <v>240</v>
       </c>
       <c r="G34" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H34">
         <v>-0.146611449662748</v>
@@ -2965,7 +2968,7 @@
         <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H37">
         <v>0.3674915271496308</v>
@@ -3065,7 +3068,7 @@
         <v>240</v>
       </c>
       <c r="G39" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H39">
         <v>-0.1313646291728204</v>
@@ -3315,7 +3318,7 @@
         <v>240</v>
       </c>
       <c r="G44" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H44">
         <v>-0.1206238634113921</v>
@@ -3365,7 +3368,7 @@
         <v>240</v>
       </c>
       <c r="G45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H45">
         <v>0.2213662194953877</v>
@@ -3565,7 +3568,7 @@
         <v>150</v>
       </c>
       <c r="G49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H49">
         <v>-0.1576899332011726</v>
@@ -3715,7 +3718,7 @@
         <v>240</v>
       </c>
       <c r="G52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H52">
         <v>-0.104998490937256</v>
@@ -3765,7 +3768,7 @@
         <v>240</v>
       </c>
       <c r="G53" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H53">
         <v>0.2288999004485047</v>
@@ -3815,7 +3818,7 @@
         <v>248</v>
       </c>
       <c r="G54" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H54">
         <v>0.317558317553131</v>
@@ -3915,7 +3918,7 @@
         <v>240</v>
       </c>
       <c r="G56" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H56">
         <v>0.1353136177637046</v>
@@ -4315,7 +4318,7 @@
         <v>240</v>
       </c>
       <c r="G64" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H64">
         <v>-1.194255666260466</v>
@@ -4465,7 +4468,7 @@
         <v>240</v>
       </c>
       <c r="G67" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H67">
         <v>-0.3061181031857528</v>
@@ -4565,7 +4568,7 @@
         <v>240</v>
       </c>
       <c r="G69" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H69">
         <v>1.163157619480385</v>
@@ -4715,7 +4718,7 @@
         <v>150</v>
       </c>
       <c r="G72" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H72">
         <v>-0.1370354761040363</v>
@@ -4815,7 +4818,7 @@
         <v>240</v>
       </c>
       <c r="G74" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H74">
         <v>-0.2214416271415249</v>
@@ -4912,10 +4915,10 @@
         <v>209</v>
       </c>
       <c r="F76" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H76">
         <v>0.2121847828366866</v>
@@ -5115,7 +5118,7 @@
         <v>246</v>
       </c>
       <c r="G80" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H80">
         <v>0.9421416189581726</v>
@@ -5165,7 +5168,7 @@
         <v>240</v>
       </c>
       <c r="G81" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H81">
         <v>-0.2416001789830564</v>
@@ -5215,7 +5218,7 @@
         <v>240</v>
       </c>
       <c r="G82" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H82">
         <v>-0.1227144742169652</v>
@@ -5315,7 +5318,7 @@
         <v>240</v>
       </c>
       <c r="G84" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H84">
         <v>0.1404145247470952</v>
@@ -5365,7 +5368,7 @@
         <v>240</v>
       </c>
       <c r="G85" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H85">
         <v>-0.1423742317396914</v>
@@ -5415,7 +5418,7 @@
         <v>240</v>
       </c>
       <c r="G86" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H86">
         <v>0.1504752988842693</v>
@@ -5515,7 +5518,7 @@
         <v>240</v>
       </c>
       <c r="G88" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H88">
         <v>-0.1678041936356739</v>
@@ -5562,10 +5565,10 @@
         <v>221</v>
       </c>
       <c r="F89" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G89" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H89">
         <v>0.1937386830284375</v>
@@ -5665,7 +5668,7 @@
         <v>240</v>
       </c>
       <c r="G91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H91">
         <v>0.3895085917016474</v>
@@ -5815,7 +5818,7 @@
         <v>150</v>
       </c>
       <c r="G94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H94">
         <v>-0.2306112443309306</v>
@@ -5915,7 +5918,7 @@
         <v>240</v>
       </c>
       <c r="G96" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H96">
         <v>-0.2004763789903048</v>
@@ -5965,7 +5968,7 @@
         <v>240</v>
       </c>
       <c r="G97" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H97">
         <v>0.157074085352691</v>
@@ -6012,10 +6015,10 @@
         <v>226</v>
       </c>
       <c r="F98" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G98" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H98">
         <v>0.1284849794932616</v>
@@ -6162,7 +6165,7 @@
         <v>229</v>
       </c>
       <c r="F101" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G101" t="s">
         <v>150</v>
@@ -6215,7 +6218,7 @@
         <v>240</v>
       </c>
       <c r="G102" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H102">
         <v>0.1032718310521878</v>
@@ -6265,7 +6268,7 @@
         <v>240</v>
       </c>
       <c r="G103" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H103">
         <v>0.1213462417846451</v>
@@ -6415,7 +6418,7 @@
         <v>150</v>
       </c>
       <c r="G106" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H106">
         <v>0.1129661578912215</v>
@@ -6515,7 +6518,7 @@
         <v>240</v>
       </c>
       <c r="G108" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H108">
         <v>0.1892181922551486</v>
@@ -6762,7 +6765,7 @@
         <v>239</v>
       </c>
       <c r="F113" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G113" t="s">
         <v>150</v>
